--- a/Experiment/Experiment.xlsx
+++ b/Experiment/Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\2023-FYP\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43968641-484F-426B-B4E5-E1AC18F45D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4B7107-D437-4125-ADF9-9176BA3AD3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="5550" windowWidth="36000" windowHeight="14280" firstSheet="4" activeTab="7" xr2:uid="{9618EC4A-BAF2-4511-9F63-3241D4476D9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{9618EC4A-BAF2-4511-9F63-3241D4476D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="movement1 6rpm" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="movement1 40rpm current" sheetId="3" r:id="rId3"/>
     <sheet name="movement1 simulation" sheetId="4" r:id="rId4"/>
     <sheet name="movement3 40rpm" sheetId="5" r:id="rId5"/>
-    <sheet name="movement3 simulation" sheetId="6" r:id="rId6"/>
-    <sheet name="movement4 40rpm" sheetId="8" r:id="rId7"/>
-    <sheet name="movement4 simulation" sheetId="9" r:id="rId8"/>
-    <sheet name="movement7 6rpm" sheetId="10" r:id="rId9"/>
-    <sheet name="movement7 simulation" sheetId="11" r:id="rId10"/>
-    <sheet name="movement4 6rpm 15x20" sheetId="13" r:id="rId11"/>
-    <sheet name="movement8 6rpm 15x20 (2)" sheetId="14" r:id="rId12"/>
+    <sheet name="movement3 6rpm" sheetId="15" r:id="rId6"/>
+    <sheet name="movement3 simulation" sheetId="6" r:id="rId7"/>
+    <sheet name="movement4 40rpm" sheetId="8" r:id="rId8"/>
+    <sheet name="movement4 simulation" sheetId="9" r:id="rId9"/>
+    <sheet name="movement7 6rpm" sheetId="10" r:id="rId10"/>
+    <sheet name="movement7 simulation" sheetId="11" r:id="rId11"/>
+    <sheet name="movement4 6rpm 15x20" sheetId="13" r:id="rId12"/>
+    <sheet name="movement8 6rpm 15x20 (2)" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="24">
   <si>
     <t>Voltage</t>
   </si>
@@ -253,60 +254,69 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'movement1 6rpm'!$B$3:$B$21</c:f>
+              <c:f>'movement1 6rpm'!$D$17:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2.11</c:v>
+                  <c:v>9.9973999999999952E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.75</c:v>
+                  <c:v>0.19812799999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8</c:v>
+                  <c:v>0.21879199999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0.45126199999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.92</c:v>
+                  <c:v>0.50808799999999987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.77</c:v>
+                  <c:v>0.5390839999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.78</c:v>
+                  <c:v>0.60624199999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.87</c:v>
+                  <c:v>0.82837999999999978</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.85</c:v>
+                  <c:v>0.80254999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.73</c:v>
+                  <c:v>0.61657399999999984</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.85</c:v>
+                  <c:v>0.57524599999999992</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.87</c:v>
+                  <c:v>0.66306799999999988</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.82</c:v>
+                  <c:v>0.80771599999999977</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.74055799999999972</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.73022599999999971</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.69922999999999969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'movement1 6rpm'!$C$3:$C$21</c:f>
+              <c:f>'movement1 6rpm'!$C$17:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -315,34 +325,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -542,6 +561,715 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'movement3 simulation'!$P$3:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>580</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'movement3 simulation'!$Q$3:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DC08-444C-A16B-5B6CD4CFFE7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="578213408"/>
+        <c:axId val="629584512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="578213408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629584512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="629584512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578213408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'movement4 40rpm'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Climbing?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'movement4 40rpm'!$D$3:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'movement4 40rpm'!$C$3:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA67-4515-81A2-5E357F0706BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="578213408"/>
+        <c:axId val="629584512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="578213408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629584512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="629584512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578213408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1167,7 +1895,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1747,7 +2475,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2220,7 +2948,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2486,717 +3214,6 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="629584512"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="629584512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="578213408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'movement7 simulation'!$P$3:$P$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>925</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>910</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'movement7 simulation'!$Q$3:$Q$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-05FC-4E08-A9C7-FFD5464B5EBE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="578213408"/>
-        <c:axId val="629584512"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="578213408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="629584512"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="629584512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="578213408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'movement7 simulation'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Climbing?</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'movement7 simulation'!$B$3:$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>850</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>940</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>980</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'movement7 simulation'!$C$3:$C$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CD9E-48FE-8BF8-5F38D704BD37}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="578213408"/>
-        <c:axId val="629584512"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="578213408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3422,19 +3439,8 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'movement4 6rpm 15x20'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Climbing?</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3457,143 +3463,59 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'movement4 6rpm 15x20'!$D$3:$D$34</c:f>
+              <c:f>'movement7 simulation'!$P$3:$P$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>0.75951499999999994</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52125500000000002</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56457500000000005</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63496999999999981</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7053649999999998</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66745999999999994</c:v>
+                  <c:v>925</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82990999999999993</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.79200499999999985</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.80283499999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.61872499999999997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.58623499999999984</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.62413999999999992</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.64579999999999993</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.43719999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.43719999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.43719999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.43719999999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.43719999999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.43719999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.43719999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.43719999999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.43719999999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.43719999999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.43719999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.43719999999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.43719999999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.43719999999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.43719999999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.43719999999999998</c:v>
+                  <c:v>910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'movement4 6rpm 15x20'!$C$3:$C$34</c:f>
+              <c:f>'movement7 simulation'!$Q$3:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -3602,7 +3524,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9FC6-4AE0-BD24-296A2D8082DA}"/>
+              <c16:uniqueId val="{00000000-05FC-4E08-A9C7-FFD5464B5EBE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3621,7 +3543,6 @@
         <c:axId val="578213408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3809,31 +3730,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>60cm</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3874,7 +3770,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'movement4 6rpm 15x20'!$C$2</c:f>
+              <c:f>'movement7 simulation'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3907,140 +3803,110 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'movement4 6rpm 15x20'!$W$4:$W$42</c:f>
+              <c:f>'movement7 simulation'!$B$3:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>-1.7299999999999999E-2</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.7299999999999999E-2</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.7299999999999999E-2</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.7299999999999999E-2</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.7299999999999999E-2</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.7299999999999999E-2</c:v>
+                  <c:v>850</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.7299999999999999E-2</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.7299999999999999E-2</c:v>
+                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.7299999999999999E-2</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.7299999999999999E-2</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.7299999999999999E-2</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.7299999999999999E-2</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.7299999999999999E-2</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-1.7299999999999999E-2</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'movement4 6rpm 15x20'!$V$4:$V$45</c:f>
+              <c:f>'movement7 simulation'!$C$3:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3E60-46BA-9725-5E463CC6B28F}"/>
+              <c16:uniqueId val="{00000000-CD9E-48FE-8BF8-5F38D704BD37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4059,7 +3925,6 @@
         <c:axId val="578213408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4287,7 +4152,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'movement8 6rpm 15x20 (2)'!$C$2</c:f>
+              <c:f>'movement4 6rpm 15x20'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4320,48 +4185,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'movement8 6rpm 15x20 (2)'!$D$3:$D$34</c:f>
+              <c:f>'movement4 6rpm 15x20'!$D$3:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>0.75951499999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52125500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56457500000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.63496999999999981</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1619999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6638199999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2252049999999999</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1981299999999999</c:v>
+                  <c:v>0.7053649999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9219649999999997</c:v>
+                  <c:v>0.66745999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.43719999999999998</c:v>
+                  <c:v>0.82990999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.43719999999999998</c:v>
+                  <c:v>0.79200499999999985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.43719999999999998</c:v>
+                  <c:v>0.80283499999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.43719999999999998</c:v>
+                  <c:v>0.61872499999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.43719999999999998</c:v>
+                  <c:v>0.58623499999999984</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.43719999999999998</c:v>
+                  <c:v>0.62413999999999992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.43719999999999998</c:v>
+                  <c:v>0.64579999999999993</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>-0.43719999999999998</c:v>
@@ -4416,26 +4281,47 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'movement8 6rpm 15x20 (2)'!$C$3:$C$34</c:f>
+              <c:f>'movement4 6rpm 15x20'!$C$3:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -4444,7 +4330,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6A26-41A5-83BD-8AEFE177FD08}"/>
+              <c16:uniqueId val="{00000000-9FC6-4AE0-BD24-296A2D8082DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4716,7 +4602,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'movement8 6rpm 15x20 (2)'!$C$2</c:f>
+              <c:f>'movement4 6rpm 15x20'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4749,7 +4635,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'movement8 6rpm 15x20 (2)'!$W$4:$W$42</c:f>
+              <c:f>'movement4 6rpm 15x20'!$W$4:$W$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -4872,7 +4758,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'movement8 6rpm 15x20 (2)'!$V$4:$V$45</c:f>
+              <c:f>'movement4 6rpm 15x20'!$V$4:$V$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -4882,7 +4768,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-830E-4738-AB6C-BD25E51D7E20}"/>
+              <c16:uniqueId val="{00000000-3E60-46BA-9725-5E463CC6B28F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5351,6 +5237,848 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629584512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="629584512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578213408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'movement8 6rpm 15x20 (2)'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Climbing?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'movement8 6rpm 15x20 (2)'!$D$3:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.63496999999999981</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6638199999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2252049999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1981299999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9219649999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.43719999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'movement8 6rpm 15x20 (2)'!$C$3:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A26-41A5-83BD-8AEFE177FD08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="578213408"/>
+        <c:axId val="629584512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="578213408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629584512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="629584512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578213408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>60cm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'movement8 6rpm 15x20 (2)'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Climbing?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'movement8 6rpm 15x20 (2)'!$W$4:$W$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'movement8 6rpm 15x20 (2)'!$V$4:$V$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-830E-4738-AB6C-BD25E51D7E20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="578213408"/>
+        <c:axId val="629584512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="578213408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7673,8 +8401,19 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'movement3 6rpm'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Climbing?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -7697,65 +8436,131 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'movement3 simulation'!$P$3:$P$10</c:f>
+              <c:f>'movement3 6rpm'!$D$3:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>503</c:v>
+                  <c:v>0.80254999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>520</c:v>
+                  <c:v>0.53391799999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>530</c:v>
+                  <c:v>0.38926999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>540</c:v>
+                  <c:v>0.40993399999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>550</c:v>
+                  <c:v>-1.8844000000000027E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>560</c:v>
+                  <c:v>5.8645999999999976E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>570</c:v>
+                  <c:v>0.15163399999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>580</c:v>
+                  <c:v>0.19296199999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28594999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31177999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33244399999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37377199999999988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40993399999999991</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.35980000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'movement3 simulation'!$Q$3:$Q$10</c:f>
+              <c:f>'movement3 6rpm'!$C$3:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -7764,7 +8569,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DC08-444C-A16B-5B6CD4CFFE7E}"/>
+              <c16:uniqueId val="{00000000-EE51-4243-A5C8-E63BF12907E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7970,6 +8775,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>60cm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8010,7 +8840,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'movement4 40rpm'!$C$2</c:f>
+              <c:f>'movement3 6rpm'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8020,7 +8850,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -8043,10 +8873,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'movement4 40rpm'!$D$3:$D$27</c:f>
+              <c:f>'movement3 6rpm'!$W$4:$W$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>-1.7299999999999999E-2</c:v>
                 </c:pt>
@@ -8120,6 +8950,45 @@
                   <c:v>-1.7299999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.7299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>-1.7299999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -8127,17 +8996,17 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'movement4 40rpm'!$C$3:$C$27</c:f>
+              <c:f>'movement3 6rpm'!$V$4:$V$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="42"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FA67-4515-81A2-5E357F0706BF}"/>
+              <c16:uniqueId val="{00000000-C346-46DB-AC3B-857AB1CF9C43}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8156,7 +9025,7 @@
         <c:axId val="578213408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.5"/>
+          <c:min val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8809,6 +9678,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15281,6 +16230,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -18935,6 +20916,87 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3841981A-D0F4-4BC9-9AA2-7F1C1529FBED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E84AA4-7CE8-45AA-913A-6FABF8C00F69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19015,7 +21077,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19096,7 +21158,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19429,6 +21491,87 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508EBE91-090F-4538-93D8-0CBDEF3E77F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E246C9A-D28A-473A-A0A3-18E656FEACB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -19468,7 +21611,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19549,7 +21692,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19584,87 +21727,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3841981A-D0F4-4BC9-9AA2-7F1C1529FBED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E84AA4-7CE8-45AA-913A-6FABF8C00F69}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -19970,10 +22032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F95095C-EE6C-4660-BAF9-81EF55D8904A}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20128,6 +22190,198 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.89</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>0.5166*B17 - 0.3598</f>
+        <v>9.9973999999999952E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1.08</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D32" si="0">0.5166*B18 - 0.3598</f>
+        <v>0.19812799999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.21879199999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1.57</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.45126199999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1.68</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.50808799999999987</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1.74</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.5390839999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1.87</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.60624199999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.82837999999999978</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>2.25</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.80254999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1.89</v>
+      </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.61657399999999984</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1.81</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.57524599999999992</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1.98</v>
+      </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.66306799999999988</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.80771599999999977</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>2.13</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.74055799999999972</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>2.11</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.73022599999999971</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.69922999999999969</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -20135,6 +22389,624 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CC27AB-A89F-4D0B-B8F2-F45DDB5A64D0}">
+  <dimension ref="A1:Y41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>3.76</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>0.5415*B3 - 0.4372</f>
+        <v>1.5988399999999998</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3.75</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D31" si="0">0.5415*B4 - 0.4372</f>
+        <v>1.5934250000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <f>0.1473*U4 - 0.0173</f>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4.26</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.8695899999999999</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:W41" si="1">0.1473*U5 - 0.0173</f>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4.37</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1.929155</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4.13</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.7991949999999999</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3.77</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.604255</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>3.72</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.57718</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>3.45</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>1.4309750000000001</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>3.43</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>1.420145</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3.21</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1.3010149999999998</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2.84</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1.1006599999999997</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2.91</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>1.138565</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.91113500000000003</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2.46</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.89488999999999996</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2.57</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0.95445499999999983</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.94362499999999971</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2.8</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>1.0789999999999997</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2.76</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>1.0573399999999997</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2.7</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>1.02485</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2.64</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.99235999999999991</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2.41</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.867815</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2.66</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>1.00319</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1.75</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.51042499999999991</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2.16</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0.73243999999999998</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1.99</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.64038499999999998</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.65121499999999988</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>2.15</v>
+      </c>
+      <c r="C29">
+        <v>0.5</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.72702499999999981</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1.94</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.6133099999999998</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1.81</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.54291500000000004</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="W32">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W34">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W41">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="U2:W2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2FC552-5866-4A71-8190-BCDF3D8C8D36}">
   <dimension ref="A1:S16"/>
   <sheetViews>
@@ -20381,7 +23253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EE5E14-F57E-470A-8078-117BF87F3B6C}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
@@ -20900,7 +23772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785E2724-5D10-4F56-AB31-871FD47E1660}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
@@ -23048,6 +25920,497 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70719D8A-72F2-487D-A44E-ED7628478637}">
+  <dimension ref="A1:W41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2.25</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>0.5166*B3 - 0.3598</f>
+        <v>0.80254999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1.73</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D27" si="0">0.5166*B4 - 0.3598</f>
+        <v>0.53391799999999989</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <f>0.1473*U4 - 0.0173</f>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1.45</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.38926999999999989</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:W41" si="1">0.1473*U5 - 0.0173</f>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1.49</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.40993399999999991</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.66</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-1.8844000000000027E-2</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.81</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>5.8645999999999976E-2</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.99</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.15163399999999994</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1.07</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.19296199999999997</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1.25</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.28594999999999993</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1.3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.31177999999999995</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1.34</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.33244399999999996</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1.42</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.37377199999999988</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1.49</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.40993399999999991</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="W28">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="W30">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="W32">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W34">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W41">
+        <f t="shared" si="1"/>
+        <v>-1.7299999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="U2:W2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CC8BDB-0236-41C6-9547-DB53C35B0BAF}">
   <dimension ref="B1:Q10"/>
   <sheetViews>
@@ -23186,7 +26549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17EF4D3D-9A56-4D8B-9BDA-EFB0C3A21E8E}">
   <dimension ref="A1:AA41"/>
   <sheetViews>
@@ -23740,11 +27103,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BAC17C-47CA-41F7-9407-2BC960DD6D49}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
@@ -24140,622 +27503,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CC27AB-A89F-4D0B-B8F2-F45DDB5A64D0}">
-  <dimension ref="A1:Y41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>3.76</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f>0.5415*B3 - 0.4372</f>
-        <v>1.5988399999999998</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V3" t="s">
-        <v>1</v>
-      </c>
-      <c r="W3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>3.75</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D31" si="0">0.5415*B4 - 0.4372</f>
-        <v>1.5934250000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W4">
-        <f>0.1473*U4 - 0.0173</f>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>4.26</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>1.8695899999999999</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5">
-        <f t="shared" ref="W5:W41" si="1">0.1473*U5 - 0.0173</f>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>4.37</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>1.929155</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>4.13</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1.7991949999999999</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>3.77</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1.604255</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>3.72</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1.57718</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>3.45</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>1.4309750000000001</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>3.43</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>1.420145</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>3.21</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>1.3010149999999998</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>2.84</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1.1006599999999997</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>2.91</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>1.138565</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="C15">
-        <v>0.5</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0.91113500000000003</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>2.46</v>
-      </c>
-      <c r="C16">
-        <v>0.5</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>0.89488999999999996</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>2.57</v>
-      </c>
-      <c r="C17">
-        <v>0.5</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>0.95445499999999983</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="C18">
-        <v>0.5</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0.94362499999999971</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>2.8</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1.0789999999999997</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>2.76</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1.0573399999999997</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>2.7</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>1.02485</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>2.64</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0.99235999999999991</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>2.41</v>
-      </c>
-      <c r="C23">
-        <v>0.5</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>0.867815</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>2.66</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>1.00319</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>1.75</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>0.51042499999999991</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>2.16</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0.73243999999999998</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>1.99</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0.64038499999999998</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="C28">
-        <v>0.5</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0.65121499999999988</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>2.15</v>
-      </c>
-      <c r="C29">
-        <v>0.5</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="0"/>
-        <v>0.72702499999999981</v>
-      </c>
-      <c r="W29">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>1.94</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="0"/>
-        <v>0.6133099999999998</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>1.81</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="0"/>
-        <v>0.54291500000000004</v>
-      </c>
-      <c r="W31">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="W32">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W33">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W34">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W35">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W36">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W37">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W38">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W39">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W40">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W41">
-        <f t="shared" si="1"/>
-        <v>-1.7299999999999999E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="U2:W2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Experiment/Experiment.xlsx
+++ b/Experiment/Experiment.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\2023-FYP\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99E8E34-00CD-4C48-9B36-AF748DA28D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E596F24-C587-4D8E-848D-E50580EB8F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19350" yWindow="10275" windowWidth="14865" windowHeight="8460" tabRatio="837" firstSheet="12" activeTab="13" xr2:uid="{9618EC4A-BAF2-4511-9F63-3241D4476D9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="837" firstSheet="2" activeTab="10" xr2:uid="{9618EC4A-BAF2-4511-9F63-3241D4476D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="movement1 40rpm" sheetId="2" r:id="rId1"/>
     <sheet name="movement1 40rpm current" sheetId="3" r:id="rId2"/>
     <sheet name="movement3 40rpm" sheetId="5" r:id="rId3"/>
     <sheet name="movement4 40rpm" sheetId="8" r:id="rId4"/>
-    <sheet name="stage 1" sheetId="1" r:id="rId5"/>
-    <sheet name="stage 1 simulation" sheetId="4" r:id="rId6"/>
-    <sheet name="stage 3" sheetId="15" r:id="rId7"/>
-    <sheet name="stage 3 simulation" sheetId="6" r:id="rId8"/>
-    <sheet name="movement4 simulation" sheetId="9" r:id="rId9"/>
+    <sheet name="movement4 simulation" sheetId="9" r:id="rId5"/>
+    <sheet name="stage 1" sheetId="1" r:id="rId6"/>
+    <sheet name="stage 1 simulation" sheetId="4" r:id="rId7"/>
+    <sheet name="stage 3" sheetId="15" r:id="rId8"/>
+    <sheet name="stage 3 simulation" sheetId="6" r:id="rId9"/>
     <sheet name="movement7 6rpm" sheetId="10" r:id="rId10"/>
     <sheet name="stage 4" sheetId="16" r:id="rId11"/>
     <sheet name="stage 4 simulation" sheetId="18" r:id="rId12"/>
@@ -695,7 +695,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>343g weight, 30cm tail</a:t>
+              <a:t>60cm tail</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -762,45 +762,45 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'stage 1'!$AC$5:$AC$29</c:f>
+              <c:f>'stage 1'!$Q$5:$Q$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0.97302799999999989</c:v>
+                  <c:v>0.45642799999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0763479999999999</c:v>
+                  <c:v>0.64756999999999987</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89037199999999983</c:v>
+                  <c:v>0.6940639999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66823399999999988</c:v>
+                  <c:v>1.0091899999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55458199999999991</c:v>
+                  <c:v>0.88520600000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70439599999999991</c:v>
+                  <c:v>0.79738399999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75088999999999972</c:v>
+                  <c:v>0.75605599999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.77671999999999997</c:v>
+                  <c:v>0.71472799999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90070399999999984</c:v>
+                  <c:v>0.68889799999999968</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.83354600000000001</c:v>
+                  <c:v>0.7198939999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.83871199999999979</c:v>
+                  <c:v>0.74572399999999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.92653400000000008</c:v>
+                  <c:v>0.81804799999999978</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>-0.35980000000000001</c:v>
@@ -846,36 +846,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'stage 1'!$AB$5:$AB$29</c:f>
+              <c:f>'stage 1'!$P$5:$P$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.5</c:v>
@@ -892,7 +892,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F5F8-4479-81DC-BF04862A2FB0}"/>
+              <c16:uniqueId val="{00000000-A989-467A-AE42-665B50F33B1A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1118,7 +1118,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>30 mm</a:t>
+              <a:t>343g weight, 30cm tail</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1162,7 +1162,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1185,96 +1185,129 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'stage 1 simulation'!$B$3:$B$21</c:f>
+              <c:f>'stage 1'!$AC$5:$AC$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>0.97302799999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>550</c:v>
+                  <c:v>1.0763479999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>700</c:v>
+                  <c:v>0.89037199999999983</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>600</c:v>
+                  <c:v>0.66823399999999988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>650</c:v>
+                  <c:v>0.55458199999999991</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>670</c:v>
+                  <c:v>0.70439599999999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>680</c:v>
+                  <c:v>0.75088999999999972</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>510</c:v>
+                  <c:v>0.77671999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>520</c:v>
+                  <c:v>0.90070399999999984</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>530</c:v>
+                  <c:v>0.83354600000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>750</c:v>
+                  <c:v>0.83871199999999979</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>800</c:v>
+                  <c:v>0.92653400000000008</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>450</c:v>
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.35980000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'stage 1 simulation'!$C$3:$C$21</c:f>
+              <c:f>'stage 1'!$AB$5:$AB$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,7 +1315,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-973E-4940-8C93-A31B1A075D22}"/>
+              <c16:uniqueId val="{00000000-F5F8-4479-81DC-BF04862A2FB0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1508,14 +1541,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>343g mass</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t>, </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB"/>
               <a:t>30 mm</a:t>
             </a:r>
           </a:p>
@@ -1560,7 +1585,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1583,84 +1608,96 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'stage 1 simulation'!$V$3:$V$13</c:f>
+              <c:f>'stage 1 simulation'!$B$3:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65</c:v>
+                  <c:v>650</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.67</c:v>
+                  <c:v>670</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.85</c:v>
+                  <c:v>510</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.87</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>450</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'stage 1 simulation'!$W$3:$W$13</c:f>
+              <c:f>'stage 1 simulation'!$C$3:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1668,7 +1705,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6532-44DF-9A40-3B7346259A69}"/>
+              <c16:uniqueId val="{00000000-973E-4940-8C93-A31B1A075D22}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1874,6 +1911,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>343g mass</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>30 mm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1912,19 +1982,8 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'stage 3'!$C$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Climbing?</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1947,131 +2006,83 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'stage 3'!$D$3:$D$27</c:f>
+              <c:f>'stage 1 simulation'!$V$3:$V$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.80254999999999999</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53391799999999989</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38926999999999989</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40993399999999991</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.8844000000000027E-2</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8645999999999976E-2</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.15163399999999994</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19296199999999997</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28594999999999993</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.31177999999999995</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33244399999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.37377199999999988</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.40993399999999991</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'stage 3'!$C$3:$C$27</c:f>
+              <c:f>'stage 1 simulation'!$W$3:$W$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2080,7 +2091,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EE51-4243-A5C8-E63BF12907E6}"/>
+              <c16:uniqueId val="{00000000-6532-44DF-9A40-3B7346259A69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2286,31 +2297,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>60cm</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2361,7 +2347,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2384,60 +2370,60 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'stage 3'!$W$4:$W$42</c:f>
+              <c:f>'stage 3'!$D$3:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1.0091899999999998</c:v>
+                  <c:v>0.80254999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96269599999999989</c:v>
+                  <c:v>0.53391799999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70439599999999991</c:v>
+                  <c:v>0.38926999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47192599999999996</c:v>
+                  <c:v>0.40993399999999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38926999999999989</c:v>
+                  <c:v>-1.8844000000000027E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.27045199999999991</c:v>
+                  <c:v>5.8645999999999976E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18779599999999996</c:v>
+                  <c:v>0.15163399999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35827399999999987</c:v>
+                  <c:v>0.19296199999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.28594999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31177999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33244399999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.37377199999999988</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.38926999999999989</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.36860599999999988</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.42543199999999992</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.48225799999999985</c:v>
+                  <c:v>0.40993399999999991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.52875199999999989</c:v>
+                  <c:v>-0.35980000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.50292199999999987</c:v>
+                  <c:v>-0.35980000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.40993399999999991</c:v>
+                  <c:v>-0.35980000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.44609599999999994</c:v>
+                  <c:v>-0.35980000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-0.35980000000000001</c:v>
@@ -2461,45 +2447,6 @@
                   <c:v>-0.35980000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
                   <c:v>-0.35980000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -2507,10 +2454,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'stage 3'!$V$4:$V$45</c:f>
+              <c:f>'stage 3'!$C$3:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2524,7 +2471,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2545,22 +2492,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2568,7 +2503,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C346-46DB-AC3B-857AB1CF9C43}"/>
+              <c16:uniqueId val="{00000000-EE51-4243-A5C8-E63BF12907E6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2794,6 +2729,494 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
+              <a:t>60cm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'stage 3'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Climbing?</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'stage 3'!$W$4:$W$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>1.0091899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96269599999999989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70439599999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47192599999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38926999999999989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27045199999999991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18779599999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35827399999999987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37377199999999988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38926999999999989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36860599999999988</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42543199999999992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48225799999999985</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52875199999999989</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50292199999999987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.40993399999999991</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.44609599999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.35980000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'stage 3'!$V$4:$V$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C346-46DB-AC3B-857AB1CF9C43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="578213408"/>
+        <c:axId val="629584512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="578213408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="629584512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="629584512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578213408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
               <a:t>343g weight, 30cm tail</a:t>
             </a:r>
           </a:p>
@@ -3183,7 +3606,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3425,586 +3848,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="578213408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Simulated movement 4, 60 cm tail, 10 cm step height</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'movement4 simulation'!$R$3:$R$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.74</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.85</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'movement4 simulation'!$Q$3:$Q$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DB95-4B45-8B53-95D4CD454051}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="578213408"/>
-        <c:axId val="629584512"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="578213408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1.1000000000000001"/>
-          <c:min val="0.4"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Torque (Nm)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="629584512"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="629584512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>Climbing</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5623,55 +5466,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.98852599999999968</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>1.1435059999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>1.1848339999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>1.1021779999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>1.0763479999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>1.0091899999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.96269599999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.92136799999999985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.89553800000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.81804799999999978</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.86970799999999981</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.82837999999999978</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.78705199999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.71472799999999992</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.67339999999999989</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.73539199999999993</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.75605599999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-0.35980000000000001</c:v>
@@ -5718,6 +5561,57 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -13934,8 +13828,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>30cm tail</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Simulated movement 4, 60 cm tail, 10 cm step height</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -13979,7 +13873,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -14002,67 +13896,97 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'stage 1'!$D$17:$D$32</c:f>
+              <c:f>'movement4 simulation'!$R$3:$R$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="29"/>
                 <c:pt idx="0">
-                  <c:v>9.9973999999999952E-2</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19812799999999997</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21879199999999999</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45126199999999994</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50808799999999987</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5390839999999999</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60624199999999995</c:v>
+                  <c:v>0.57999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.82837999999999978</c:v>
+                  <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80254999999999999</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61657399999999984</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.57524599999999992</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.66306799999999988</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.80771599999999977</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.74055799999999972</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.73022599999999971</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.69922999999999969</c:v>
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'stage 1'!$C$17:$C$32</c:f>
+              <c:f>'movement4 simulation'!$Q$3:$Q$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14085,31 +14009,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="22">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="23">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.5</c:v>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14117,7 +14071,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-44FD-4E86-8680-A50F891E996B}"/>
+              <c16:uniqueId val="{00000000-DB95-4B45-8B53-95D4CD454051}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14136,6 +14090,8 @@
         <c:axId val="578213408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.1000000000000001"/>
+          <c:min val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -14153,6 +14109,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Torque (Nm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -14215,6 +14226,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Climbing</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -14343,7 +14409,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>60cm tail</a:t>
+              <a:t>30cm tail</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -14387,7 +14453,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -14410,94 +14476,67 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'stage 1'!$Q$5:$Q$29</c:f>
+              <c:f>'stage 1'!$D$17:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.45642799999999994</c:v>
+                  <c:v>9.9973999999999952E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64756999999999987</c:v>
+                  <c:v>0.19812799999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6940639999999999</c:v>
+                  <c:v>0.21879199999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0091899999999998</c:v>
+                  <c:v>0.45126199999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88520600000000005</c:v>
+                  <c:v>0.50808799999999987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79738399999999998</c:v>
+                  <c:v>0.5390839999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75605599999999995</c:v>
+                  <c:v>0.60624199999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.71472799999999992</c:v>
+                  <c:v>0.82837999999999978</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.68889799999999968</c:v>
+                  <c:v>0.80254999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7198939999999997</c:v>
+                  <c:v>0.61657399999999984</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.74572399999999994</c:v>
+                  <c:v>0.57524599999999992</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.81804799999999978</c:v>
+                  <c:v>0.66306799999999988</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.80771599999999977</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.74055799999999972</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.73022599999999971</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.35980000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.69922999999999969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'stage 1'!$P$5:$P$29</c:f>
+              <c:f>'stage 1'!$C$17:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14508,31 +14547,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14540,7 +14591,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A989-467A-AE42-665B50F33B1A}"/>
+              <c16:uniqueId val="{00000000-44FD-4E86-8680-A50F891E996B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -34017,6 +34068,49 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE171DB3-37BD-496A-B2BA-DA5D2BC4FE96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -34130,7 +34224,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -34211,7 +34305,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -34330,7 +34424,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -34351,49 +34445,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2B1888-4FD9-424B-83B5-E6B7C90CFEE6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE171DB3-37BD-496A-B2BA-DA5D2BC4FE96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35968,8 +36019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04615C6C-4208-48D3-A317-3294B3E54DB4}">
   <dimension ref="A1:AJ41"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2:AJ28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36019,9 +36070,15 @@
       <c r="AJ2" s="1"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2.61</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="D3">
         <f>0.5166*B3 - 0.3598</f>
-        <v>-0.35980000000000001</v>
+        <v>0.98852599999999968</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -36055,9 +36112,15 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2.91</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4">
         <f t="shared" ref="D4:D31" si="0">0.5166*B4 - 0.3598</f>
-        <v>-0.35980000000000001</v>
+        <v>1.1435059999999999</v>
       </c>
       <c r="E4">
         <v>0.5</v>
@@ -36093,9 +36156,15 @@
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2.99</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <v>1.1848339999999999</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -36125,9 +36194,15 @@
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2.83</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <v>1.1021779999999999</v>
       </c>
       <c r="U6">
         <v>2.79</v>
@@ -36151,9 +36226,15 @@
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2.78</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <v>1.0763479999999999</v>
       </c>
       <c r="U7">
         <v>2.42</v>
@@ -36177,9 +36258,15 @@
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2.65</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <f>0.5166*B8 - 0.3598</f>
+        <v>1.0091899999999998</v>
       </c>
       <c r="U8">
         <v>2.21</v>
@@ -36203,9 +36290,15 @@
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2.56</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <f>0.5166*B9 - 0.3598</f>
+        <v>0.96269599999999989</v>
       </c>
       <c r="U9">
         <v>2.04</v>
@@ -36229,9 +36322,15 @@
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2.48</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <f>0.5166*B10 - 0.3598</f>
+        <v>0.92136799999999985</v>
       </c>
       <c r="U10">
         <v>1.73</v>
@@ -36255,9 +36354,15 @@
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <f>0.5166*B11 - 0.3598</f>
+        <v>0.89553800000000006</v>
       </c>
       <c r="U11">
         <v>1.93</v>
@@ -36281,9 +36386,15 @@
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <f>0.5166*B12 - 0.3598</f>
+        <v>0.81804799999999978</v>
       </c>
       <c r="U12">
         <v>2.2599999999999998</v>
@@ -36307,9 +36418,15 @@
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2.38</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <f>0.5166*B13 - 0.3598</f>
+        <v>0.86970799999999981</v>
       </c>
       <c r="U13">
         <v>2.3199999999999998</v>
@@ -36333,9 +36450,15 @@
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <f>0.5166*B14 - 0.3598</f>
+        <v>0.82837999999999978</v>
       </c>
       <c r="U14">
         <v>2.15</v>
@@ -36359,9 +36482,15 @@
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <f>0.5166*B15 - 0.3598</f>
+        <v>0.78705199999999997</v>
       </c>
       <c r="U15">
         <v>2.2200000000000002</v>
@@ -36385,9 +36514,15 @@
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2.08</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <f>0.5166*B16 - 0.3598</f>
+        <v>0.71472799999999992</v>
       </c>
       <c r="U16">
         <v>2.36</v>
@@ -36410,10 +36545,16 @@
         <v>0.89553800000000006</v>
       </c>
     </row>
-    <row r="17" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <f>0.5166*B17 - 0.3598</f>
+        <v>0.67339999999999989</v>
       </c>
       <c r="U17">
         <v>2.62</v>
@@ -36436,10 +36577,16 @@
         <v>1.0143559999999998</v>
       </c>
     </row>
-    <row r="18" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>2.12</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <v>0.73539199999999993</v>
       </c>
       <c r="U18">
         <v>2.63</v>
@@ -36462,10 +36609,16 @@
         <v>1.1538379999999999</v>
       </c>
     </row>
-    <row r="19" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2.16</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <v>0.75605599999999995</v>
       </c>
       <c r="U19">
         <v>2.5299999999999998</v>
@@ -36488,7 +36641,7 @@
         <v>1.282988</v>
       </c>
     </row>
-    <row r="20" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D20">
         <f t="shared" si="0"/>
         <v>-0.35980000000000001</v>
@@ -36514,7 +36667,7 @@
         <v>1.210664</v>
       </c>
     </row>
-    <row r="21" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D21">
         <f t="shared" si="0"/>
         <v>-0.35980000000000001</v>
@@ -36540,7 +36693,7 @@
         <v>1.24166</v>
       </c>
     </row>
-    <row r="22" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D22">
         <f t="shared" si="0"/>
         <v>-0.35980000000000001</v>
@@ -36566,7 +36719,7 @@
         <v>1.3656439999999996</v>
       </c>
     </row>
-    <row r="23" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D23">
         <f t="shared" si="0"/>
         <v>-0.35980000000000001</v>
@@ -36586,7 +36739,7 @@
         <v>1.262324</v>
       </c>
     </row>
-    <row r="24" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D24">
         <f t="shared" si="0"/>
         <v>-0.35980000000000001</v>
@@ -36600,7 +36753,7 @@
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="25" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D25">
         <f t="shared" si="0"/>
         <v>-0.35980000000000001</v>
@@ -36614,7 +36767,7 @@
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="26" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D26">
         <f t="shared" si="0"/>
         <v>-0.35980000000000001</v>
@@ -36628,7 +36781,7 @@
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="27" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D27">
         <f t="shared" si="0"/>
         <v>-0.35980000000000001</v>
@@ -36642,7 +36795,7 @@
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="28" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D28">
         <f t="shared" si="0"/>
         <v>-0.35980000000000001</v>
@@ -36656,7 +36809,7 @@
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="29" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D29">
         <f t="shared" si="0"/>
         <v>-0.35980000000000001</v>
@@ -36666,7 +36819,7 @@
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="30" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D30">
         <f t="shared" si="0"/>
         <v>-0.35980000000000001</v>
@@ -36676,7 +36829,7 @@
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="31" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="D31">
         <f t="shared" si="0"/>
         <v>-0.35980000000000001</v>
@@ -36686,7 +36839,7 @@
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="32" spans="4:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="W32">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
@@ -36761,8 +36914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAE7D4F-F24E-4D02-9CC3-4C6D70FF7ECE}">
   <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2:AJ16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AI29" sqref="AI29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37279,7 +37432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF32143-BDE9-48E5-8FDD-8FBFEF700EFA}">
   <dimension ref="A1:AI41"/>
   <sheetViews>
-    <sheetView topLeftCell="AI13" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="AG19" sqref="AG19"/>
     </sheetView>
   </sheetViews>
@@ -37922,8 +38075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB04FC8A-2F4D-468F-956D-FFE2E738F9A8}">
   <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA2" workbookViewId="0">
-      <selection activeCell="AE15" sqref="AE15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40838,2135 +40991,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F95095C-EE6C-4660-BAF9-81EF55D8904A}">
-  <dimension ref="A1:AC32"/>
-  <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3:AC29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>2.11</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="AA3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1.75</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1.8</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <v>1.58</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f>0.5166*O5 - 0.3598</f>
-        <v>0.45642799999999994</v>
-      </c>
-      <c r="AA5">
-        <v>2.58</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <f>0.5166*AA5 - 0.3598</f>
-        <v>0.97302799999999989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1.95</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" ref="Q6:Q29" si="0">0.5166*O6 - 0.3598</f>
-        <v>0.64756999999999987</v>
-      </c>
-      <c r="AA6">
-        <v>2.78</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" ref="AC6:AC29" si="1">0.5166*AA6 - 0.3598</f>
-        <v>1.0763479999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>1.92</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>2.04</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="0"/>
-        <v>0.6940639999999999</v>
-      </c>
-      <c r="AA7">
-        <v>2.42</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="1"/>
-        <v>0.89037199999999983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>1.77</v>
-      </c>
-      <c r="C8">
-        <v>0.5</v>
-      </c>
-      <c r="O8">
-        <v>2.65</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="0"/>
-        <v>1.0091899999999998</v>
-      </c>
-      <c r="AA8">
-        <v>1.99</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="1"/>
-        <v>0.66823399999999988</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>1.78</v>
-      </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
-      <c r="O9">
-        <v>2.41</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>0.88520600000000005</v>
-      </c>
-      <c r="AA9">
-        <v>1.77</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="1"/>
-        <v>0.55458199999999991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>1.87</v>
-      </c>
-      <c r="C10">
-        <v>0.5</v>
-      </c>
-      <c r="O10">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="0"/>
-        <v>0.79738399999999998</v>
-      </c>
-      <c r="AA10">
-        <v>2.06</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="1"/>
-        <v>0.70439599999999991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>1.85</v>
-      </c>
-      <c r="C11">
-        <v>0.5</v>
-      </c>
-      <c r="O11">
-        <v>2.16</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="0"/>
-        <v>0.75605599999999995</v>
-      </c>
-      <c r="AA11">
-        <v>2.15</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="1"/>
-        <v>0.75088999999999972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>1.73</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>2.08</v>
-      </c>
-      <c r="P12">
-        <v>0.5</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="0"/>
-        <v>0.71472799999999992</v>
-      </c>
-      <c r="AA12">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="1"/>
-        <v>0.77671999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>1.85</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="0"/>
-        <v>0.68889799999999968</v>
-      </c>
-      <c r="AA13">
-        <v>2.44</v>
-      </c>
-      <c r="AB13">
-        <v>1</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="1"/>
-        <v>0.90070399999999984</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>1.87</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>2.09</v>
-      </c>
-      <c r="P14">
-        <v>0.5</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="0"/>
-        <v>0.7198939999999997</v>
-      </c>
-      <c r="AA14">
-        <v>2.31</v>
-      </c>
-      <c r="AB14">
-        <v>0.5</v>
-      </c>
-      <c r="AC14">
-        <f t="shared" si="1"/>
-        <v>0.83354600000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>1.82</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>2.14</v>
-      </c>
-      <c r="P15">
-        <v>0.5</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="0"/>
-        <v>0.74572399999999994</v>
-      </c>
-      <c r="AA15">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="AB15">
-        <v>0.5</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="1"/>
-        <v>0.83871199999999979</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="O16">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="0"/>
-        <v>0.81804799999999978</v>
-      </c>
-      <c r="AA16">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="AB16">
-        <v>1</v>
-      </c>
-      <c r="AC16">
-        <f t="shared" si="1"/>
-        <v>0.92653400000000008</v>
-      </c>
-    </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>0.89</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <f>0.5166*B17 - 0.3598</f>
-        <v>9.9973999999999952E-2</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AC17">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>1.08</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ref="D18:D32" si="2">0.5166*B18 - 0.3598</f>
-        <v>0.19812799999999997</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AC18">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>0.21879199999999999</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AC19">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>1.57</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>0.45126199999999994</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>1.68</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>0.50808799999999987</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AC21">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>1.74</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>0.5390839999999999</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AC22">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>1.87</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="2"/>
-        <v>0.60624199999999995</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="2"/>
-        <v>0.82837999999999978</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AC24">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>2.25</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="2"/>
-        <v>0.80254999999999999</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AC25">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>1.89</v>
-      </c>
-      <c r="C26">
-        <v>0.5</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="2"/>
-        <v>0.61657399999999984</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>1.81</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="2"/>
-        <v>0.57524599999999992</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AC27">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>1.98</v>
-      </c>
-      <c r="C28">
-        <v>0.5</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="2"/>
-        <v>0.66306799999999988</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AC28">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="2"/>
-        <v>0.80771599999999977</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AC29">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>2.13</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="2"/>
-        <v>0.74055799999999972</v>
-      </c>
-    </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>2.11</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="2"/>
-        <v>0.73022599999999971</v>
-      </c>
-    </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="C32">
-        <v>0.5</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="2"/>
-        <v>0.69922999999999969</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="AA3:AC3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA64C6AC-8460-4877-AD67-40FDDC949CE1}">
-  <dimension ref="A1:Z15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:Z13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1"/>
-      <c r="V1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>500</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3">
-        <v>440</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0.8</v>
-      </c>
-      <c r="W3">
-        <v>0.5</v>
-      </c>
-      <c r="X3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="Y3">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="Z3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>550</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4">
-        <v>500</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0.9</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>700</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <v>600</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0.7</v>
-      </c>
-      <c r="W5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>600</v>
-      </c>
-      <c r="C6">
-        <v>0.5</v>
-      </c>
-      <c r="P6">
-        <v>640</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0.6</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>650</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-      <c r="P7">
-        <v>650</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0.65</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>670</v>
-      </c>
-      <c r="C8">
-        <v>0.5</v>
-      </c>
-      <c r="P8">
-        <v>690</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0.67</v>
-      </c>
-      <c r="W8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>680</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>710</v>
-      </c>
-      <c r="Q9">
-        <v>0.5</v>
-      </c>
-      <c r="V9">
-        <v>0.66</v>
-      </c>
-      <c r="W9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>510</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>720</v>
-      </c>
-      <c r="Q10">
-        <v>0.5</v>
-      </c>
-      <c r="V10">
-        <v>0.85</v>
-      </c>
-      <c r="W10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>520</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>750</v>
-      </c>
-      <c r="Q11">
-        <v>0.5</v>
-      </c>
-      <c r="V11">
-        <v>0.87</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>530</v>
-      </c>
-      <c r="C12">
-        <v>0.5</v>
-      </c>
-      <c r="P12">
-        <v>780</v>
-      </c>
-      <c r="Q12">
-        <v>0.5</v>
-      </c>
-      <c r="V12">
-        <v>0.86</v>
-      </c>
-      <c r="W12">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>750</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>800</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>1</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>800</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>830</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>450</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>790</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="V1:W1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70719D8A-72F2-487D-A44E-ED7628478637}">
-  <dimension ref="A1:AK41"/>
-  <sheetViews>
-    <sheetView topLeftCell="AK13" workbookViewId="0">
-      <selection activeCell="AK35" sqref="AK35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="AI2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>2.25</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <f>0.5166*B3 - 0.3598</f>
-        <v>0.80254999999999999</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V3" t="s">
-        <v>1</v>
-      </c>
-      <c r="W3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1.73</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D27" si="0">0.5166*B4 - 0.3598</f>
-        <v>0.53391799999999989</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="U4">
-        <v>2.65</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <f>0.5166*U4 - 0.3598</f>
-        <v>1.0091899999999998</v>
-      </c>
-      <c r="AI4">
-        <v>2.35</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-      <c r="AK4">
-        <f>0.5166*AI4 - 0.3598</f>
-        <v>0.85421000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1.45</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.38926999999999989</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="U5">
-        <v>2.56</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <f t="shared" ref="W5:W41" si="1">0.5166*U5 - 0.3598</f>
-        <v>0.96269599999999989</v>
-      </c>
-      <c r="AI5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-      <c r="AK5">
-        <f t="shared" ref="AK5:AK28" si="2">0.5166*AI5 - 0.3598</f>
-        <v>0.82837999999999978</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1.49</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.40993399999999991</v>
-      </c>
-      <c r="U6">
-        <v>2.06</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="1"/>
-        <v>0.70439599999999991</v>
-      </c>
-      <c r="AI6">
-        <v>2.0299999999999998</v>
-      </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
-      <c r="AK6">
-        <f t="shared" si="2"/>
-        <v>0.68889799999999968</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>0.66</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>-1.8844000000000027E-2</v>
-      </c>
-      <c r="U7">
-        <v>1.61</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="1"/>
-        <v>0.47192599999999996</v>
-      </c>
-      <c r="AI7">
-        <v>1.75</v>
-      </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
-      <c r="AK7">
-        <f t="shared" si="2"/>
-        <v>0.5442499999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>0.81</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>5.8645999999999976E-2</v>
-      </c>
-      <c r="U8">
-        <v>1.45</v>
-      </c>
-      <c r="V8">
-        <v>0.5</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="1"/>
-        <v>0.38926999999999989</v>
-      </c>
-      <c r="AI8">
-        <v>1.64</v>
-      </c>
-      <c r="AJ8">
-        <v>0.5</v>
-      </c>
-      <c r="AK8">
-        <f t="shared" si="2"/>
-        <v>0.48742399999999986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>0.99</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>0.15163399999999994</v>
-      </c>
-      <c r="U9">
-        <v>1.22</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="1"/>
-        <v>0.27045199999999991</v>
-      </c>
-      <c r="AI9">
-        <v>1.69</v>
-      </c>
-      <c r="AJ9">
-        <v>0.5</v>
-      </c>
-      <c r="AK9">
-        <f t="shared" si="2"/>
-        <v>0.51325399999999988</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>1.07</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.19296199999999997</v>
-      </c>
-      <c r="U10">
-        <v>1.06</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="1"/>
-        <v>0.18779599999999996</v>
-      </c>
-      <c r="AI10">
-        <v>1.73</v>
-      </c>
-      <c r="AJ10">
-        <v>1</v>
-      </c>
-      <c r="AK10">
-        <f t="shared" si="2"/>
-        <v>0.53391799999999989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>1.25</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.28594999999999993</v>
-      </c>
-      <c r="U11">
-        <v>1.39</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="1"/>
-        <v>0.35827399999999987</v>
-      </c>
-      <c r="AI11">
-        <v>1.5</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <f t="shared" si="2"/>
-        <v>0.41509999999999991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>1.3</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.31177999999999995</v>
-      </c>
-      <c r="U12">
-        <v>1.42</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="1"/>
-        <v>0.37377199999999988</v>
-      </c>
-      <c r="AI12">
-        <v>1.41</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <f t="shared" si="2"/>
-        <v>0.36860599999999988</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>1.34</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0.33244399999999996</v>
-      </c>
-      <c r="U13">
-        <v>1.45</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="1"/>
-        <v>0.38926999999999989</v>
-      </c>
-      <c r="AI13">
-        <v>1.56</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <f t="shared" si="2"/>
-        <v>0.44609599999999994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>1.42</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>0.37377199999999988</v>
-      </c>
-      <c r="U14">
-        <v>1.41</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="1"/>
-        <v>0.36860599999999988</v>
-      </c>
-      <c r="AI14">
-        <v>1.58</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <f t="shared" si="2"/>
-        <v>0.45642799999999994</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>1.49</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0.40993399999999991</v>
-      </c>
-      <c r="U15">
-        <v>1.52</v>
-      </c>
-      <c r="V15">
-        <v>0.5</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="1"/>
-        <v>0.42543199999999992</v>
-      </c>
-      <c r="AI15">
-        <v>1.61</v>
-      </c>
-      <c r="AJ15">
-        <v>0.5</v>
-      </c>
-      <c r="AK15">
-        <f t="shared" si="2"/>
-        <v>0.47192599999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="U16">
-        <v>1.63</v>
-      </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="1"/>
-        <v>0.48225799999999985</v>
-      </c>
-      <c r="AK16">
-        <f t="shared" si="2"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="U17">
-        <v>1.72</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="1"/>
-        <v>0.52875199999999989</v>
-      </c>
-      <c r="AK17">
-        <f t="shared" si="2"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="U18">
-        <v>1.67</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="1"/>
-        <v>0.50292199999999987</v>
-      </c>
-      <c r="AK18">
-        <f t="shared" si="2"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="U19">
-        <v>1.49</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="1"/>
-        <v>0.40993399999999991</v>
-      </c>
-      <c r="AK19">
-        <f t="shared" si="2"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="U20">
-        <v>1.56</v>
-      </c>
-      <c r="V20">
-        <v>0.5</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="1"/>
-        <v>0.44609599999999994</v>
-      </c>
-      <c r="AK20">
-        <f t="shared" si="2"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AK21">
-        <f t="shared" si="2"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AK22">
-        <f t="shared" si="2"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AK23">
-        <f t="shared" si="2"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AK24">
-        <f t="shared" si="2"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D25">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AK25">
-        <f t="shared" si="2"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AK26">
-        <f t="shared" si="2"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AK27">
-        <f t="shared" si="2"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="W28">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-      <c r="AK28">
-        <f t="shared" si="2"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="W29">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="W30">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="W31">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="W32">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W33">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W34">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W35">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W36">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W37">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W38">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W39">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W40">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="23:23" x14ac:dyDescent="0.25">
-      <c r="W41">
-        <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="AI2:AK2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CC8BDB-0236-41C6-9547-DB53C35B0BAF}">
-  <dimension ref="B1:AC14"/>
-  <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:AC14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="P1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="1"/>
-    </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3">
-        <v>503</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="W3" t="s">
-        <v>21</v>
-      </c>
-      <c r="X3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4">
-        <v>520</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0.86</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="AA4">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AB4">
-        <v>0.01</v>
-      </c>
-      <c r="AC4">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <v>530</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0.8</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="P6">
-        <v>540</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0.7</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="P7">
-        <v>550</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0.6</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="P8">
-        <v>560</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>0.5</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="P9">
-        <v>570</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Y9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="P10">
-        <v>580</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>0.53</v>
-      </c>
-      <c r="Y10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="X11">
-        <v>0.52</v>
-      </c>
-      <c r="Y11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="X12">
-        <v>0.51</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="X13">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="Y13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="X14">
-        <v>0.59</v>
-      </c>
-      <c r="Y14">
-        <v>0.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="X2:Y2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BAC17C-47CA-41F7-9407-2BC960DD6D49}">
   <dimension ref="A1:S28"/>
   <sheetViews>
@@ -43366,4 +41390,2133 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F95095C-EE6C-4660-BAF9-81EF55D8904A}">
+  <dimension ref="A1:AC32"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2.11</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1.75</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1.8</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <v>1.58</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f>0.5166*O5 - 0.3598</f>
+        <v>0.45642799999999994</v>
+      </c>
+      <c r="AA5">
+        <v>2.58</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <f>0.5166*AA5 - 0.3598</f>
+        <v>0.97302799999999989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1.95</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q29" si="0">0.5166*O6 - 0.3598</f>
+        <v>0.64756999999999987</v>
+      </c>
+      <c r="AA6">
+        <v>2.78</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" ref="AC6:AC29" si="1">0.5166*AA6 - 0.3598</f>
+        <v>1.0763479999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1.92</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>2.04</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>0.6940639999999999</v>
+      </c>
+      <c r="AA7">
+        <v>2.42</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="1"/>
+        <v>0.89037199999999983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1.77</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="O8">
+        <v>2.65</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>1.0091899999999998</v>
+      </c>
+      <c r="AA8">
+        <v>1.99</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="1"/>
+        <v>0.66823399999999988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1.78</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="O9">
+        <v>2.41</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0.88520600000000005</v>
+      </c>
+      <c r="AA9">
+        <v>1.77</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="1"/>
+        <v>0.55458199999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1.87</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="O10">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>0.79738399999999998</v>
+      </c>
+      <c r="AA10">
+        <v>2.06</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="1"/>
+        <v>0.70439599999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1.85</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="O11">
+        <v>2.16</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>0.75605599999999995</v>
+      </c>
+      <c r="AA11">
+        <v>2.15</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="1"/>
+        <v>0.75088999999999972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1.73</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.08</v>
+      </c>
+      <c r="P12">
+        <v>0.5</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>0.71472799999999992</v>
+      </c>
+      <c r="AA12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="1"/>
+        <v>0.77671999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1.85</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>0.68889799999999968</v>
+      </c>
+      <c r="AA13">
+        <v>2.44</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="1"/>
+        <v>0.90070399999999984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1.87</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>2.09</v>
+      </c>
+      <c r="P14">
+        <v>0.5</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>0.7198939999999997</v>
+      </c>
+      <c r="AA14">
+        <v>2.31</v>
+      </c>
+      <c r="AB14">
+        <v>0.5</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="1"/>
+        <v>0.83354600000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1.82</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.14</v>
+      </c>
+      <c r="P15">
+        <v>0.5</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>0.74572399999999994</v>
+      </c>
+      <c r="AA15">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="AB15">
+        <v>0.5</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="1"/>
+        <v>0.83871199999999979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>0.81804799999999978</v>
+      </c>
+      <c r="AA16">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AB16">
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="1"/>
+        <v>0.92653400000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0.89</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>0.5166*B17 - 0.3598</f>
+        <v>9.9973999999999952E-2</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1.08</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D32" si="2">0.5166*B18 - 0.3598</f>
+        <v>0.19812799999999997</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>0.21879199999999999</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1.57</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>0.45126199999999994</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1.68</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>0.50808799999999987</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1.74</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>0.5390839999999999</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1.87</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>0.60624199999999995</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>0.82837999999999978</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>2.25</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>0.80254999999999999</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1.89</v>
+      </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>0.61657399999999984</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1.81</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>0.57524599999999992</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1.98</v>
+      </c>
+      <c r="C28">
+        <v>0.5</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>0.66306799999999988</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>0.80771599999999977</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>2.13</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>0.74055799999999972</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>2.11</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>0.73022599999999971</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>0.69922999999999969</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="AA3:AC3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA64C6AC-8460-4877-AD67-40FDDC949CE1}">
+  <dimension ref="A1:Z15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="V1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3">
+        <v>440</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0.8</v>
+      </c>
+      <c r="W3">
+        <v>0.5</v>
+      </c>
+      <c r="X3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="Y3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Z3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>550</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4">
+        <v>500</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0.9</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>700</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>600</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0.7</v>
+      </c>
+      <c r="W5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>600</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="P6">
+        <v>640</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0.6</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>650</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="P7">
+        <v>650</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0.65</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>670</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="P8">
+        <v>690</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0.67</v>
+      </c>
+      <c r="W8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>680</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>710</v>
+      </c>
+      <c r="Q9">
+        <v>0.5</v>
+      </c>
+      <c r="V9">
+        <v>0.66</v>
+      </c>
+      <c r="W9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>510</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>720</v>
+      </c>
+      <c r="Q10">
+        <v>0.5</v>
+      </c>
+      <c r="V10">
+        <v>0.85</v>
+      </c>
+      <c r="W10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>520</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>750</v>
+      </c>
+      <c r="Q11">
+        <v>0.5</v>
+      </c>
+      <c r="V11">
+        <v>0.87</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>530</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="P12">
+        <v>780</v>
+      </c>
+      <c r="Q12">
+        <v>0.5</v>
+      </c>
+      <c r="V12">
+        <v>0.86</v>
+      </c>
+      <c r="W12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>750</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>800</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>800</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>830</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>450</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>790</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="V1:W1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70719D8A-72F2-487D-A44E-ED7628478637}">
+  <dimension ref="A1:AK41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AK35" sqref="AK35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="AI2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2.25</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>0.5166*B3 - 0.3598</f>
+        <v>0.80254999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1.73</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D27" si="0">0.5166*B4 - 0.3598</f>
+        <v>0.53391799999999989</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>2.65</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <f>0.5166*U4 - 0.3598</f>
+        <v>1.0091899999999998</v>
+      </c>
+      <c r="AI4">
+        <v>2.35</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <f>0.5166*AI4 - 0.3598</f>
+        <v>0.85421000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1.45</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0.38926999999999989</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>2.56</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:W41" si="1">0.5166*U5 - 0.3598</f>
+        <v>0.96269599999999989</v>
+      </c>
+      <c r="AI5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" ref="AK5:AK28" si="2">0.5166*AI5 - 0.3598</f>
+        <v>0.82837999999999978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1.49</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.40993399999999991</v>
+      </c>
+      <c r="U6">
+        <v>2.06</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>0.70439599999999991</v>
+      </c>
+      <c r="AI6">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="2"/>
+        <v>0.68889799999999968</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.66</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-1.8844000000000027E-2</v>
+      </c>
+      <c r="U7">
+        <v>1.61</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>0.47192599999999996</v>
+      </c>
+      <c r="AI7">
+        <v>1.75</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="2"/>
+        <v>0.5442499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.81</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>5.8645999999999976E-2</v>
+      </c>
+      <c r="U8">
+        <v>1.45</v>
+      </c>
+      <c r="V8">
+        <v>0.5</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>0.38926999999999989</v>
+      </c>
+      <c r="AI8">
+        <v>1.64</v>
+      </c>
+      <c r="AJ8">
+        <v>0.5</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="2"/>
+        <v>0.48742399999999986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.99</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.15163399999999994</v>
+      </c>
+      <c r="U9">
+        <v>1.22</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>0.27045199999999991</v>
+      </c>
+      <c r="AI9">
+        <v>1.69</v>
+      </c>
+      <c r="AJ9">
+        <v>0.5</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="2"/>
+        <v>0.51325399999999988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1.07</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.19296199999999997</v>
+      </c>
+      <c r="U10">
+        <v>1.06</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>0.18779599999999996</v>
+      </c>
+      <c r="AI10">
+        <v>1.73</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="2"/>
+        <v>0.53391799999999989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1.25</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0.28594999999999993</v>
+      </c>
+      <c r="U11">
+        <v>1.39</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>0.35827399999999987</v>
+      </c>
+      <c r="AI11">
+        <v>1.5</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="2"/>
+        <v>0.41509999999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1.3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.31177999999999995</v>
+      </c>
+      <c r="U12">
+        <v>1.42</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>0.37377199999999988</v>
+      </c>
+      <c r="AI12">
+        <v>1.41</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="2"/>
+        <v>0.36860599999999988</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1.34</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0.33244399999999996</v>
+      </c>
+      <c r="U13">
+        <v>1.45</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>0.38926999999999989</v>
+      </c>
+      <c r="AI13">
+        <v>1.56</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="2"/>
+        <v>0.44609599999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1.42</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.37377199999999988</v>
+      </c>
+      <c r="U14">
+        <v>1.41</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>0.36860599999999988</v>
+      </c>
+      <c r="AI14">
+        <v>1.58</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="2"/>
+        <v>0.45642799999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1.49</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0.40993399999999991</v>
+      </c>
+      <c r="U15">
+        <v>1.52</v>
+      </c>
+      <c r="V15">
+        <v>0.5</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>0.42543199999999992</v>
+      </c>
+      <c r="AI15">
+        <v>1.61</v>
+      </c>
+      <c r="AJ15">
+        <v>0.5</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="2"/>
+        <v>0.47192599999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="U16">
+        <v>1.63</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="1"/>
+        <v>0.48225799999999985</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="2"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="U17">
+        <v>1.72</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="1"/>
+        <v>0.52875199999999989</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="2"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="U18">
+        <v>1.67</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="1"/>
+        <v>0.50292199999999987</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="2"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="U19">
+        <v>1.49</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="1"/>
+        <v>0.40993399999999991</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="2"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="U20">
+        <v>1.56</v>
+      </c>
+      <c r="V20">
+        <v>0.5</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="1"/>
+        <v>0.44609599999999994</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="2"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="2"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="2"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="2"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="2"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="2"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="2"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="2"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="W28">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="2"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="W30">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="W32">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W34">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W41">
+        <f t="shared" si="1"/>
+        <v>-0.35980000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="AI2:AK2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CC8BDB-0236-41C6-9547-DB53C35B0BAF}">
+  <dimension ref="B1:AC14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:AC14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3">
+        <v>503</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4">
+        <v>520</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0.86</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AA4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AB4">
+        <v>0.01</v>
+      </c>
+      <c r="AC4">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>530</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0.8</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>540</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0.7</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>550</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0.6</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>560</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>0.5</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>570</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>580</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0.53</v>
+      </c>
+      <c r="Y10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="X11">
+        <v>0.52</v>
+      </c>
+      <c r="Y11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="X12">
+        <v>0.51</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="X13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Y13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="X14">
+        <v>0.59</v>
+      </c>
+      <c r="Y14">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="X2:Y2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Experiment/Experiment.xlsx
+++ b/Experiment/Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\2023-FYP\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E596F24-C587-4D8E-848D-E50580EB8F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFBF17A-FF1C-41F0-AAE0-8F1AF63F2E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="837" firstSheet="2" activeTab="10" xr2:uid="{9618EC4A-BAF2-4511-9F63-3241D4476D9E}"/>
+    <workbookView xWindow="1500" yWindow="3525" windowWidth="36000" windowHeight="14280" tabRatio="837" firstSheet="2" activeTab="10" xr2:uid="{9618EC4A-BAF2-4511-9F63-3241D4476D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="movement1 40rpm" sheetId="2" r:id="rId1"/>
@@ -36265,7 +36265,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <f>0.5166*B8 - 0.3598</f>
+        <f t="shared" ref="D8:D17" si="3">0.5166*B8 - 0.3598</f>
         <v>1.0091899999999998</v>
       </c>
       <c r="U8">
@@ -36297,7 +36297,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <f>0.5166*B9 - 0.3598</f>
+        <f t="shared" si="3"/>
         <v>0.96269599999999989</v>
       </c>
       <c r="U9">
@@ -36329,7 +36329,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <f>0.5166*B10 - 0.3598</f>
+        <f t="shared" si="3"/>
         <v>0.92136799999999985</v>
       </c>
       <c r="U10">
@@ -36361,7 +36361,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <f>0.5166*B11 - 0.3598</f>
+        <f t="shared" si="3"/>
         <v>0.89553800000000006</v>
       </c>
       <c r="U11">
@@ -36393,7 +36393,7 @@
         <v>0.5</v>
       </c>
       <c r="D12">
-        <f>0.5166*B12 - 0.3598</f>
+        <f t="shared" si="3"/>
         <v>0.81804799999999978</v>
       </c>
       <c r="U12">
@@ -36425,7 +36425,7 @@
         <v>0.5</v>
       </c>
       <c r="D13">
-        <f>0.5166*B13 - 0.3598</f>
+        <f t="shared" si="3"/>
         <v>0.86970799999999981</v>
       </c>
       <c r="U13">
@@ -36457,7 +36457,7 @@
         <v>0.5</v>
       </c>
       <c r="D14">
-        <f>0.5166*B14 - 0.3598</f>
+        <f t="shared" si="3"/>
         <v>0.82837999999999978</v>
       </c>
       <c r="U14">
@@ -36489,7 +36489,7 @@
         <v>0.5</v>
       </c>
       <c r="D15">
-        <f>0.5166*B15 - 0.3598</f>
+        <f t="shared" si="3"/>
         <v>0.78705199999999997</v>
       </c>
       <c r="U15">
@@ -36521,7 +36521,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <f>0.5166*B16 - 0.3598</f>
+        <f t="shared" si="3"/>
         <v>0.71472799999999992</v>
       </c>
       <c r="U16">
@@ -36553,7 +36553,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <f>0.5166*B17 - 0.3598</f>
+        <f t="shared" si="3"/>
         <v>0.67339999999999989</v>
       </c>
       <c r="U17">

--- a/Experiment/Experiment.xlsx
+++ b/Experiment/Experiment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\2023-FYP\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFBF17A-FF1C-41F0-AAE0-8F1AF63F2E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5338E98C-9264-42E3-B10B-36FE50B1C818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="3525" windowWidth="36000" windowHeight="14280" tabRatio="837" firstSheet="2" activeTab="10" xr2:uid="{9618EC4A-BAF2-4511-9F63-3241D4476D9E}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="837" firstSheet="2" activeTab="5" xr2:uid="{9618EC4A-BAF2-4511-9F63-3241D4476D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="movement1 40rpm" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="37">
   <si>
     <t>Voltage</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>start p</t>
+  </si>
+  <si>
+    <t>Voltage (V)</t>
+  </si>
+  <si>
+    <t>Assessment of motion</t>
+  </si>
+  <si>
+    <t>Torque (Nm)</t>
   </si>
 </sst>
 </file>
@@ -14388,62 +14397,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>30cm tail</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -14499,34 +14453,34 @@
                   <c:v>0.5390839999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.57524599999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.60624199999999995</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>0.61657399999999984</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66306799999999988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.69922999999999969</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.73022599999999971</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.74055799999999972</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.80254999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.80771599999999977</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0.82837999999999978</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.80254999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.61657399999999984</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.57524599999999992</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.66306799999999988</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.80771599999999977</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.74055799999999972</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.73022599999999971</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.69922999999999969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14559,19 +14513,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
@@ -14583,7 +14537,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14627,6 +14581,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Torque [Nm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -14672,6 +14681,7 @@
         <c:axId val="629584512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -14689,6 +14699,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Assessment of motion</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -14729,6 +14794,7 @@
         <c:crossAx val="578213408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -34467,6 +34533,23 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8C6611F-383D-435A-AC6F-7F1DF0E15956}" name="Table1" displayName="Table1" ref="B16:D32" totalsRowShown="0">
+  <autoFilter ref="B16:D32" xr:uid="{D8C6611F-383D-435A-AC6F-7F1DF0E15956}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:D32">
+    <sortCondition ref="D16:D32"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{454D9108-78C8-4041-AC07-9FE80D1B2AD0}" name="Voltage (V)"/>
+    <tableColumn id="2" xr3:uid="{15B92778-4B01-4448-A351-2B33DE1EFE6F}" name="Assessment of motion"/>
+    <tableColumn id="3" xr3:uid="{1C650477-7653-4F2A-8655-1819D8161FC6}" name="Torque (Nm)">
+      <calculatedColumnFormula>0.5166*B17 - 0.3598</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -36019,7 +36102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04615C6C-4208-48D3-A317-3294B3E54DB4}">
   <dimension ref="A1:AJ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
@@ -37432,7 +37515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF32143-BDE9-48E5-8FDD-8FBFEF700EFA}">
   <dimension ref="A1:AI41"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AG19" sqref="AG19"/>
     </sheetView>
   </sheetViews>
@@ -41396,13 +41479,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F95095C-EE6C-4660-BAF9-81EF55D8904A}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -41801,6 +41886,15 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
       <c r="O16">
         <v>2.2799999999999998</v>
       </c>
@@ -41850,7 +41944,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:D32" si="2">0.5166*B18 - 0.3598</f>
+        <f>0.5166*B18 - 0.3598</f>
         <v>0.19812799999999997</v>
       </c>
       <c r="Q18">
@@ -41870,7 +41964,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
+        <f>0.5166*B19 - 0.3598</f>
         <v>0.21879199999999999</v>
       </c>
       <c r="Q19">
@@ -41890,7 +41984,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
+        <f>0.5166*B20 - 0.3598</f>
         <v>0.45126199999999994</v>
       </c>
       <c r="Q20">
@@ -41910,7 +42004,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
+        <f>0.5166*B21 - 0.3598</f>
         <v>0.50808799999999987</v>
       </c>
       <c r="Q21">
@@ -41930,7 +42024,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f>0.5166*B22 - 0.3598</f>
         <v>0.5390839999999999</v>
       </c>
       <c r="Q22">
@@ -41944,14 +42038,14 @@
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
-        <v>0.60624199999999995</v>
+        <f>0.5166*B23 - 0.3598</f>
+        <v>0.57524599999999992</v>
       </c>
       <c r="Q23">
         <f t="shared" si="0"/>
@@ -41964,14 +42058,14 @@
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>2.2999999999999998</v>
+        <v>1.87</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
-        <v>0.82837999999999978</v>
+        <f>0.5166*B24 - 0.3598</f>
+        <v>0.60624199999999995</v>
       </c>
       <c r="Q24">
         <f t="shared" si="0"/>
@@ -41984,14 +42078,14 @@
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>2.25</v>
+        <v>1.89</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
-        <v>0.80254999999999999</v>
+        <f>0.5166*B25 - 0.3598</f>
+        <v>0.61657399999999984</v>
       </c>
       <c r="Q25">
         <f t="shared" si="0"/>
@@ -42004,14 +42098,14 @@
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="C26">
         <v>0.5</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
-        <v>0.61657399999999984</v>
+        <f>0.5166*B26 - 0.3598</f>
+        <v>0.66306799999999988</v>
       </c>
       <c r="Q26">
         <f t="shared" si="0"/>
@@ -42024,14 +42118,14 @@
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>1.81</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
-        <v>0.57524599999999992</v>
+        <f>0.5166*B27 - 0.3598</f>
+        <v>0.69922999999999969</v>
       </c>
       <c r="Q27">
         <f t="shared" si="0"/>
@@ -42044,14 +42138,14 @@
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="C28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
-        <v>0.66306799999999988</v>
+        <f>0.5166*B28 - 0.3598</f>
+        <v>0.73022599999999971</v>
       </c>
       <c r="Q28">
         <f t="shared" si="0"/>
@@ -42064,14 +42158,14 @@
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>2.2599999999999998</v>
+        <v>2.13</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
-        <v>0.80771599999999977</v>
+        <f>0.5166*B29 - 0.3598</f>
+        <v>0.74055799999999972</v>
       </c>
       <c r="Q29">
         <f t="shared" si="0"/>
@@ -42084,38 +42178,38 @@
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
-        <v>0.74055799999999972</v>
+        <f>0.5166*B30 - 0.3598</f>
+        <v>0.80254999999999999</v>
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>2.11</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <f t="shared" si="2"/>
-        <v>0.73022599999999971</v>
+        <f>0.5166*B31 - 0.3598</f>
+        <v>0.80771599999999977</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>2.0499999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
-        <v>0.69922999999999969</v>
+        <f>0.5166*B32 - 0.3598</f>
+        <v>0.82837999999999978</v>
       </c>
     </row>
   </sheetData>
@@ -42125,6 +42219,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Experiment/Experiment.xlsx
+++ b/Experiment/Experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\2023-FYP\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5338E98C-9264-42E3-B10B-36FE50B1C818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9119FE21-EC61-4F9F-B9D4-9328CDB136CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="837" firstSheet="2" activeTab="5" xr2:uid="{9618EC4A-BAF2-4511-9F63-3241D4476D9E}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="54">
   <si>
     <t>Voltage</t>
   </si>
@@ -164,18 +164,745 @@
   <si>
     <t>Torque (Nm)</t>
   </si>
+  <si>
+    <r>
+      <t>FRICTION_COEFFICIENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>STEP_HEIGHT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>STEP_PITCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SLIDER_RANGE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SLIDER_SETTING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Stall Torque"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SLIDER_DEFAULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.48</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>STALL_TORQUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NO_LOAD_SPEED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SPEED_BETA_FILTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>KD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TIME_STEP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0005</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>START_STEP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>START_OFFSET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SDF_ADDRESS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"/my-robot/robot.sdf"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SIM_DURATION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RECORDING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4FC1FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,10 +925,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -36997,7 +37727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAE7D4F-F24E-4D02-9CC3-4C6D70FF7ECE}">
   <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AI29" sqref="AI29"/>
     </sheetView>
   </sheetViews>
@@ -41924,7 +42654,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <f>0.5166*B17 - 0.3598</f>
+        <f t="shared" ref="D17:D32" si="2">0.5166*B17 - 0.3598</f>
         <v>9.9973999999999952E-2</v>
       </c>
       <c r="Q17">
@@ -41944,7 +42674,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <f>0.5166*B18 - 0.3598</f>
+        <f t="shared" si="2"/>
         <v>0.19812799999999997</v>
       </c>
       <c r="Q18">
@@ -41964,7 +42694,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <f>0.5166*B19 - 0.3598</f>
+        <f t="shared" si="2"/>
         <v>0.21879199999999999</v>
       </c>
       <c r="Q19">
@@ -41984,7 +42714,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <f>0.5166*B20 - 0.3598</f>
+        <f t="shared" si="2"/>
         <v>0.45126199999999994</v>
       </c>
       <c r="Q20">
@@ -42004,7 +42734,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <f>0.5166*B21 - 0.3598</f>
+        <f t="shared" si="2"/>
         <v>0.50808799999999987</v>
       </c>
       <c r="Q21">
@@ -42024,7 +42754,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <f>0.5166*B22 - 0.3598</f>
+        <f t="shared" si="2"/>
         <v>0.5390839999999999</v>
       </c>
       <c r="Q22">
@@ -42044,7 +42774,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <f>0.5166*B23 - 0.3598</f>
+        <f t="shared" si="2"/>
         <v>0.57524599999999992</v>
       </c>
       <c r="Q23">
@@ -42064,7 +42794,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <f>0.5166*B24 - 0.3598</f>
+        <f t="shared" si="2"/>
         <v>0.60624199999999995</v>
       </c>
       <c r="Q24">
@@ -42084,7 +42814,7 @@
         <v>0.5</v>
       </c>
       <c r="D25">
-        <f>0.5166*B25 - 0.3598</f>
+        <f t="shared" si="2"/>
         <v>0.61657399999999984</v>
       </c>
       <c r="Q25">
@@ -42104,7 +42834,7 @@
         <v>0.5</v>
       </c>
       <c r="D26">
-        <f>0.5166*B26 - 0.3598</f>
+        <f t="shared" si="2"/>
         <v>0.66306799999999988</v>
       </c>
       <c r="Q26">
@@ -42124,7 +42854,7 @@
         <v>0.5</v>
       </c>
       <c r="D27">
-        <f>0.5166*B27 - 0.3598</f>
+        <f t="shared" si="2"/>
         <v>0.69922999999999969</v>
       </c>
       <c r="Q27">
@@ -42144,7 +42874,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <f>0.5166*B28 - 0.3598</f>
+        <f t="shared" si="2"/>
         <v>0.73022599999999971</v>
       </c>
       <c r="Q28">
@@ -42164,7 +42894,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <f>0.5166*B29 - 0.3598</f>
+        <f t="shared" si="2"/>
         <v>0.74055799999999972</v>
       </c>
       <c r="Q29">
@@ -42184,7 +42914,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <f>0.5166*B30 - 0.3598</f>
+        <f t="shared" si="2"/>
         <v>0.80254999999999999</v>
       </c>
     </row>
@@ -42196,7 +42926,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <f>0.5166*B31 - 0.3598</f>
+        <f t="shared" si="2"/>
         <v>0.80771599999999977</v>
       </c>
     </row>
@@ -42208,7 +42938,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <f>0.5166*B32 - 0.3598</f>
+        <f t="shared" si="2"/>
         <v>0.82837999999999978</v>
       </c>
     </row>
@@ -43369,10 +44099,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CC8BDB-0236-41C6-9547-DB53C35B0BAF}">
-  <dimension ref="B1:AC14"/>
+  <dimension ref="B1:AC25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:AC14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43416,6 +44146,12 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="E3">
         <v>0</v>
       </c>
@@ -43454,6 +44190,12 @@
       </c>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="E4">
         <v>0.5</v>
       </c>
@@ -43486,6 +44228,12 @@
       </c>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -43506,6 +44254,12 @@
       </c>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="P6">
         <v>540</v>
       </c>
@@ -43520,6 +44274,15 @@
       </c>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.45</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="P7">
         <v>550</v>
       </c>
@@ -43534,6 +44297,15 @@
       </c>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="P8">
         <v>560</v>
       </c>
@@ -43548,6 +44320,15 @@
       </c>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.47</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="P9">
         <v>570</v>
       </c>
@@ -43562,6 +44343,15 @@
       </c>
     </row>
     <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.48</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="P10">
         <v>580</v>
       </c>
@@ -43576,6 +44366,15 @@
       </c>
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.42</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="X11">
         <v>0.52</v>
       </c>
@@ -43584,6 +44383,15 @@
       </c>
     </row>
     <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0.41</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="X12">
         <v>0.51</v>
       </c>
@@ -43592,6 +44400,9 @@
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="X13">
         <v>0.57999999999999996</v>
       </c>
@@ -43600,11 +44411,75 @@
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="X14">
         <v>0.59</v>
       </c>
       <c r="Y14">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment/Experiment.xlsx
+++ b/Experiment/Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\2023-FYP\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9119FE21-EC61-4F9F-B9D4-9328CDB136CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44110B01-44B9-421B-9F6B-52451DFA4E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="837" firstSheet="2" activeTab="5" xr2:uid="{9618EC4A-BAF2-4511-9F63-3241D4476D9E}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="837" firstSheet="2" activeTab="13" xr2:uid="{9618EC4A-BAF2-4511-9F63-3241D4476D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="movement1 40rpm" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="64">
   <si>
     <t>Voltage</t>
   </si>
@@ -861,6 +861,506 @@
       <t>0</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>SLIDER_DEFAULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.68</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>START_STEP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>START_OFFSET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>START_POS_X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>START_POS_Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>STEP_PITCH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>START_STEP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>START_OFFSET</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>START_POS_Z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>STEP_HEIGHT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4FC1FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>START_STEP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SLIDER_DEFAULT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TIME_STEP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>START_STEP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>START_OFFSET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.08</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -905,12 +1405,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F1F1F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -925,12 +1431,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -35593,11 +36102,11 @@
       <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="S1" t="s">
         <v>21</v>
       </c>
@@ -35618,11 +36127,11 @@
       <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -36225,11 +36734,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -36253,11 +36762,11 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -36843,11 +37352,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -36871,16 +37380,16 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="AH2" s="1" t="s">
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="AH2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -37725,10 +38234,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BAE7D4F-F24E-4D02-9CC3-4C6D70FF7ECE}">
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AI29" sqref="AI29"/>
+      <selection activeCell="U34" sqref="U34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37741,17 +38250,17 @@
       <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2"/>
       <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -37775,12 +38284,18 @@
       <c r="S2" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="1"/>
+      <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.68</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
       <c r="E3">
         <v>0</v>
       </c>
@@ -37826,6 +38341,12 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="E4">
         <v>0.5</v>
       </c>
@@ -37858,13 +38379,19 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="AI4">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="AJ4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -37889,6 +38416,12 @@
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.8</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
       <c r="P6">
         <v>550</v>
       </c>
@@ -37907,6 +38440,15 @@
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.85</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="P7">
         <v>560</v>
       </c>
@@ -37925,6 +38467,15 @@
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.82</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P8">
         <v>570</v>
       </c>
@@ -37943,6 +38494,15 @@
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.83</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="P9">
         <v>580</v>
       </c>
@@ -37961,6 +38521,15 @@
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.84</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="P10">
         <v>590</v>
       </c>
@@ -37979,6 +38548,15 @@
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="P11">
         <v>600</v>
       </c>
@@ -37997,6 +38575,15 @@
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0.51</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="P12">
         <v>610</v>
       </c>
@@ -38015,6 +38602,15 @@
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0.52</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="P13">
         <v>620</v>
       </c>
@@ -38033,6 +38629,15 @@
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0.54</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="P14">
         <v>630</v>
       </c>
@@ -38051,6 +38656,15 @@
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.53</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="P15">
         <v>650</v>
       </c>
@@ -38069,6 +38683,9 @@
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="P16">
         <v>700</v>
       </c>
@@ -38086,7 +38703,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="P17">
         <v>720</v>
       </c>
@@ -38098,7 +38718,10 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="18" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="P18">
         <v>740</v>
       </c>
@@ -38110,7 +38733,10 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="19" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="P19">
         <v>760</v>
       </c>
@@ -38122,7 +38748,10 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="20" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="P20">
         <v>780</v>
       </c>
@@ -38134,7 +38763,10 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="21" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="P21">
         <v>800</v>
       </c>
@@ -38146,7 +38778,10 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="22" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="P22">
         <v>820</v>
       </c>
@@ -38158,7 +38793,10 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="23" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="P23">
         <v>840</v>
       </c>
@@ -38170,7 +38808,8 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="24" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E24" s="3"/>
       <c r="P24">
         <v>860</v>
       </c>
@@ -38182,7 +38821,10 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="25" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="P25">
         <v>880</v>
       </c>
@@ -38194,7 +38836,10 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="26" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="P26">
         <v>900</v>
       </c>
@@ -38206,7 +38851,10 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="27" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="P27">
         <v>790</v>
       </c>
@@ -38218,7 +38866,13 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="28" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
       <c r="P28">
         <v>850</v>
       </c>
@@ -38228,6 +38882,14 @@
       <c r="R28">
         <f t="shared" si="0"/>
         <v>0.85</v>
+      </c>
+    </row>
+    <row r="29" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F29">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -38256,11 +38918,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -38284,16 +38946,16 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="AG2" s="1" t="s">
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="AG2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D3">
@@ -38888,8 +39550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB04FC8A-2F4D-468F-956D-FFE2E738F9A8}">
   <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38902,17 +39564,17 @@
       <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2"/>
       <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -38936,12 +39598,18 @@
       <c r="S2" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="1"/>
+      <c r="AF2" s="2"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
       <c r="E3">
         <v>0</v>
       </c>
@@ -38981,6 +39649,12 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.4</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="E4">
         <v>0.5</v>
       </c>
@@ -39014,6 +39688,12 @@
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.45</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -39032,6 +39712,12 @@
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.47</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
       <c r="R6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -39044,6 +39730,12 @@
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.46</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
       <c r="R7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -39056,6 +39748,15 @@
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0.6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="R8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -39068,6 +39769,15 @@
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.65</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="R9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -39080,6 +39790,15 @@
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.62</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="R10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -39092,6 +39811,15 @@
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0.61</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="R11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -39104,6 +39832,9 @@
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="R12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -39116,6 +39847,9 @@
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="R13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -39128,6 +39862,9 @@
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="R14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -39140,84 +39877,124 @@
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="R15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="R16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="R17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E18" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="R18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="R19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="R20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="R21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="R22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="R23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="R24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E25" s="3"/>
       <c r="R25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="R26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="R27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="R28">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -39252,17 +40029,17 @@
       <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2"/>
       <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -39496,11 +40273,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -39524,11 +40301,11 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -40015,11 +40792,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -40043,11 +40820,11 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -40617,11 +41394,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -40645,11 +41422,11 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D3">
@@ -41264,11 +42041,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -41289,11 +42066,11 @@
       <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D3">
@@ -41821,17 +42598,17 @@
       <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="2"/>
       <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -42209,7 +42986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F95095C-EE6C-4660-BAF9-81EF55D8904A}">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -42258,16 +43035,16 @@
       <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="AA3" s="1" t="s">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="AA3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -42971,18 +43748,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="V1" s="1" t="s">
+      <c r="Q1" s="2"/>
+      <c r="V1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="1"/>
+      <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -43332,11 +44109,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -43357,16 +44134,16 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="AI2" s="1" t="s">
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="AI2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -44112,14 +44889,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -44140,10 +44917,10 @@
       <c r="Q2" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="1"/>
+      <c r="Y2" s="2"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -44280,7 +45057,7 @@
       <c r="C7">
         <v>0.5</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="P7">
@@ -44303,7 +45080,7 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="P8">
@@ -44326,7 +45103,7 @@
       <c r="C9">
         <v>0.5</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="P9">
@@ -44349,7 +45126,7 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="P10">
@@ -44372,7 +45149,7 @@
       <c r="C11">
         <v>0.5</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="X11">
@@ -44389,7 +45166,7 @@
       <c r="C12">
         <v>0.5</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="X12">
@@ -44400,7 +45177,7 @@
       </c>
     </row>
     <row r="13" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="X13">
@@ -44411,7 +45188,7 @@
       </c>
     </row>
     <row r="14" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="X14">
@@ -44422,52 +45199,52 @@
       </c>
     </row>
     <row r="15" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F24">
@@ -44475,7 +45252,7 @@
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F25">

--- a/Experiment/Experiment.xlsx
+++ b/Experiment/Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\2023-FYP\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44110B01-44B9-421B-9F6B-52451DFA4E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1C21BB-804E-4F18-A2C4-D9241D14B9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="837" firstSheet="2" activeTab="13" xr2:uid="{9618EC4A-BAF2-4511-9F63-3241D4476D9E}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="36000" windowHeight="14280" tabRatio="837" firstSheet="2" activeTab="12" xr2:uid="{9618EC4A-BAF2-4511-9F63-3241D4476D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="movement1 40rpm" sheetId="2" r:id="rId1"/>
@@ -1436,11 +1436,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8699,46 +8699,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.42543199999999992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.50808799999999987</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.62690599999999985</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.73539199999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.90587000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.78705199999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.84387800000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.71472799999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.72505999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.77671999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.46675999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.63207199999999986</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.59074399999999994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.62690599999999985</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-0.35980000000000001</c:v>
@@ -8794,6 +8794,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -36102,11 +36144,11 @@
       <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
       <c r="S1" t="s">
         <v>21</v>
       </c>
@@ -36127,11 +36169,11 @@
       <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -36734,11 +36776,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -36762,11 +36804,11 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -37352,11 +37394,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -37380,16 +37422,16 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="AH2" s="2" t="s">
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="AH2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -38250,17 +38292,17 @@
       <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="3"/>
       <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -38284,10 +38326,10 @@
       <c r="S2" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="2"/>
+      <c r="AF2" s="3"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -38809,7 +38851,7 @@
       </c>
     </row>
     <row r="24" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E24" s="3"/>
+      <c r="E24" s="2"/>
       <c r="P24">
         <v>860</v>
       </c>
@@ -38907,8 +38949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF32143-BDE9-48E5-8FDD-8FBFEF700EFA}">
   <dimension ref="A1:AI41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG19" sqref="AG19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38918,11 +38960,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -38946,21 +38988,27 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="AG2" s="2" t="s">
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="AG2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1.52</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3">
         <f>0.5166*B3 - 0.3598</f>
-        <v>-0.35980000000000001</v>
+        <v>0.42543199999999992</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -38991,9 +39039,15 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1.68</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
       <c r="D4">
         <f t="shared" ref="D4:D31" si="0">0.5166*B4 - 0.3598</f>
-        <v>-0.35980000000000001</v>
+        <v>0.50808799999999987</v>
       </c>
       <c r="E4">
         <v>0.5</v>
@@ -39020,9 +39074,15 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1.91</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <v>0.62690599999999985</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -39046,9 +39106,15 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2.12</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <v>0.73539199999999993</v>
       </c>
       <c r="W6">
         <f t="shared" si="1"/>
@@ -39066,9 +39132,15 @@
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <v>0.90587000000000006</v>
       </c>
       <c r="W7">
         <f t="shared" si="1"/>
@@ -39086,9 +39158,15 @@
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <v>0.78705199999999997</v>
       </c>
       <c r="W8">
         <f t="shared" si="1"/>
@@ -39106,9 +39184,15 @@
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2.33</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <v>0.84387800000000002</v>
       </c>
       <c r="W9">
         <f t="shared" si="1"/>
@@ -39126,9 +39210,15 @@
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2.08</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <v>0.71472799999999992</v>
       </c>
       <c r="W10">
         <f t="shared" si="1"/>
@@ -39146,9 +39236,15 @@
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2.1</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <v>0.72505999999999993</v>
       </c>
       <c r="W11">
         <f t="shared" si="1"/>
@@ -39166,9 +39262,15 @@
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <v>0.77671999999999997</v>
       </c>
       <c r="W12">
         <f t="shared" si="1"/>
@@ -39186,9 +39288,15 @@
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1.6</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <v>0.46675999999999995</v>
       </c>
       <c r="W13">
         <f t="shared" si="1"/>
@@ -39206,9 +39314,15 @@
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1.92</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <v>0.63207199999999986</v>
       </c>
       <c r="W14">
         <f t="shared" si="1"/>
@@ -39226,9 +39340,15 @@
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1.84</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <v>0.59074399999999994</v>
       </c>
       <c r="W15">
         <f t="shared" si="1"/>
@@ -39246,9 +39366,15 @@
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1.91</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>-0.35980000000000001</v>
+        <v>0.62690599999999985</v>
       </c>
       <c r="W16">
         <f t="shared" si="1"/>
@@ -39550,7 +39676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB04FC8A-2F4D-468F-956D-FFE2E738F9A8}">
   <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -39564,17 +39690,17 @@
       <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="3"/>
       <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -39598,10 +39724,10 @@
       <c r="S2" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="2"/>
+      <c r="AF2" s="3"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -39967,7 +40093,7 @@
       </c>
     </row>
     <row r="25" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E25" s="3"/>
+      <c r="E25" s="2"/>
       <c r="R25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -40029,17 +40155,17 @@
       <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="3"/>
       <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -40273,11 +40399,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -40301,11 +40427,11 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -40792,11 +40918,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -40820,11 +40946,11 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -41394,11 +41520,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -41422,11 +41548,11 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D3">
@@ -42041,11 +42167,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -42066,11 +42192,11 @@
       <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D3">
@@ -42598,17 +42724,17 @@
       <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="3"/>
       <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -43035,16 +43161,16 @@
       <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="AA3" s="2" t="s">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="AA3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -43748,18 +43874,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="V1" s="2" t="s">
+      <c r="Q1" s="3"/>
+      <c r="V1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="2"/>
+      <c r="W1" s="3"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -44109,11 +44235,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -44134,16 +44260,16 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="AI2" s="2" t="s">
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="AI2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -44889,14 +45015,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="P1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2"/>
+      <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -44917,10 +45043,10 @@
       <c r="Q2" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="2"/>
+      <c r="Y2" s="3"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B3">

--- a/Experiment/Experiment.xlsx
+++ b/Experiment/Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\2023-FYP\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1C21BB-804E-4F18-A2C4-D9241D14B9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5B3069-5594-40E7-A656-54703B471B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="36000" windowHeight="14280" tabRatio="837" firstSheet="2" activeTab="12" xr2:uid="{9618EC4A-BAF2-4511-9F63-3241D4476D9E}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="837" firstSheet="2" activeTab="12" xr2:uid="{9618EC4A-BAF2-4511-9F63-3241D4476D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="movement1 40rpm" sheetId="2" r:id="rId1"/>
@@ -38949,7 +38949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF32143-BDE9-48E5-8FDD-8FBFEF700EFA}">
   <dimension ref="A1:AI41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/Experiment/Experiment.xlsx
+++ b/Experiment/Experiment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\2023-FYP\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5B3069-5594-40E7-A656-54703B471B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478E7C0D-93C4-4B84-BA85-5B102E784EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="837" firstSheet="2" activeTab="12" xr2:uid="{9618EC4A-BAF2-4511-9F63-3241D4476D9E}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="837" firstSheet="2" activeTab="8" xr2:uid="{9618EC4A-BAF2-4511-9F63-3241D4476D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="movement1 40rpm" sheetId="2" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="movement8 6rpm 15x20 (2)" sheetId="14" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="68">
   <si>
     <t>Voltage</t>
   </si>
@@ -1361,6 +1362,18 @@
       <t>0.08</t>
     </r>
   </si>
+  <si>
+    <t>Default device</t>
+  </si>
+  <si>
+    <t>60 cm tail</t>
+  </si>
+  <si>
+    <t>340g added weight</t>
+  </si>
+  <si>
+    <t>Assessment</t>
+  </si>
 </sst>
 </file>
 
@@ -1405,7 +1418,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1415,6 +1428,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF1F1F1F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,7 +1450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1439,6 +1458,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9152,37 +9172,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.62690599999999985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.55974799999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.58557799999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.60624199999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.64756999999999987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.74055799999999972</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.81288199999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.79221799999999976</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.77671999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.76122199999999973</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.79221799999999976</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-0.35980000000000001</c:v>
@@ -9274,6 +9294,39 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9624,10 +9677,10 @@
                   <c:v>1.0091899999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.64756999999999987</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.35980000000000001</c:v>
+                  <c:v>0.63207199999999986</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-0.35980000000000001</c:v>
@@ -9706,6 +9759,12 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15711,7 +15770,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'stage 1'!$D$17:$D$32</c:f>
+              <c:f>'stage 1'!$D$18:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -15768,7 +15827,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'stage 1'!$C$17:$C$32</c:f>
+              <c:f>'stage 1'!$C$18:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -35458,16 +35517,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -35815,16 +35874,201 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8C6611F-383D-435A-AC6F-7F1DF0E15956}" name="Table1" displayName="Table1" ref="B16:D32" totalsRowShown="0">
-  <autoFilter ref="B16:D32" xr:uid="{D8C6611F-383D-435A-AC6F-7F1DF0E15956}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:D32">
-    <sortCondition ref="D16:D32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D8C6611F-383D-435A-AC6F-7F1DF0E15956}" name="Table1" displayName="Table1" ref="B17:D33" totalsRowShown="0">
+  <autoFilter ref="B17:D33" xr:uid="{D8C6611F-383D-435A-AC6F-7F1DF0E15956}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:D33">
+    <sortCondition ref="D17:D33"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{454D9108-78C8-4041-AC07-9FE80D1B2AD0}" name="Voltage (V)"/>
     <tableColumn id="2" xr3:uid="{15B92778-4B01-4448-A351-2B33DE1EFE6F}" name="Assessment of motion"/>
     <tableColumn id="3" xr3:uid="{1C650477-7653-4F2A-8655-1819D8161FC6}" name="Torque (Nm)">
-      <calculatedColumnFormula>0.5166*B17 - 0.3598</calculatedColumnFormula>
+      <calculatedColumnFormula>0.5166*B18 - 0.3598</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{71F6E86E-8261-42A4-A124-57C0EA0F67C0}" name="Table15811" displayName="Table15811" ref="B35:D49" totalsRowShown="0">
+  <autoFilter ref="B35:D49" xr:uid="{71F6E86E-8261-42A4-A124-57C0EA0F67C0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B36:D51">
+    <sortCondition ref="D17:D33"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CAD27083-FA5E-48F6-92F5-34B6AFF11750}" name="Voltage (V)"/>
+    <tableColumn id="2" xr3:uid="{AFAF5C91-E2D7-4592-8F72-00693A5D9962}" name="Assessment"/>
+    <tableColumn id="3" xr3:uid="{B6954464-42A9-4A58-93D7-C32F2BCBFA47}" name="Torque (Nm)">
+      <calculatedColumnFormula>0.5166*B36 - 0.3598</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D5323D04-5FD4-4A00-AF3D-353855E58538}" name="Table136912" displayName="Table136912" ref="E35:G46" totalsRowShown="0">
+  <autoFilter ref="E35:G46" xr:uid="{D5323D04-5FD4-4A00-AF3D-353855E58538}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E36:G51">
+    <sortCondition ref="G17:G33"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C5218001-DA11-4431-9773-833E4A6E8516}" name="Voltage (V)"/>
+    <tableColumn id="2" xr3:uid="{45521B7E-88C5-4614-A4E2-A43582FD3D21}" name="Assessment"/>
+    <tableColumn id="3" xr3:uid="{1C0D49CB-78C6-4D53-B1E5-1028D8A6FEEC}" name="Torque (Nm)">
+      <calculatedColumnFormula>0.5166*E36 - 0.3598</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{6CD1380D-061F-44B0-8F07-CB3B504A0D7D}" name="Table1471013" displayName="Table1471013" ref="H35:J52" totalsRowShown="0">
+  <autoFilter ref="H35:J52" xr:uid="{6CD1380D-061F-44B0-8F07-CB3B504A0D7D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H36:J51">
+    <sortCondition ref="J17:J33"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5B21E5CA-F45E-4AC9-9217-EDD2B2CAB04B}" name="Voltage (V)"/>
+    <tableColumn id="2" xr3:uid="{314F354B-5608-44C1-A1DF-2553BFD07EFE}" name="Assessment"/>
+    <tableColumn id="3" xr3:uid="{183A4D76-0876-4907-919B-4D1C639C196B}" name="Torque (Nm)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1FB70589-FC06-49EF-8614-590D5AA58AF2}" name="Table13" displayName="Table13" ref="E17:G29" totalsRowShown="0">
+  <autoFilter ref="E17:G29" xr:uid="{1FB70589-FC06-49EF-8614-590D5AA58AF2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E18:G33">
+    <sortCondition ref="G17:G33"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2D349F71-0498-41AA-A6DA-2EE94DC1117F}" name="Voltage (V)"/>
+    <tableColumn id="2" xr3:uid="{6844B9DB-1791-482B-ADE4-B981BB52806B}" name="Assessment of motion"/>
+    <tableColumn id="3" xr3:uid="{80F1ADE5-21F2-4227-8E2F-C664B8BA8DEF}" name="Torque (Nm)">
+      <calculatedColumnFormula>0.5166*E18 - 0.3598</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E6996FFB-F8A9-46F1-A3A4-094ECB61AC6C}" name="Table14" displayName="Table14" ref="H17:J29" totalsRowShown="0">
+  <autoFilter ref="H17:J29" xr:uid="{E6996FFB-F8A9-46F1-A3A4-094ECB61AC6C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H18:J33">
+    <sortCondition ref="J17:J33"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DB2647B3-E4EF-4F69-9D4D-C7F14A3FD0CE}" name="Voltage (V)"/>
+    <tableColumn id="2" xr3:uid="{ED33179A-CCA5-4B64-BC12-2FFF5F88C4DD}" name="Assessment of motion"/>
+    <tableColumn id="3" xr3:uid="{02A68DB9-427A-4B3E-81F0-411AFB6B6067}" name="Torque (Nm)">
+      <calculatedColumnFormula>0.5166*H18 - 0.3598</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{83EF7212-0E52-4375-87E9-0A17A76F5944}" name="Table15" displayName="Table15" ref="B36:D49" totalsRowShown="0">
+  <autoFilter ref="B36:D49" xr:uid="{83EF7212-0E52-4375-87E9-0A17A76F5944}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B37:D52">
+    <sortCondition ref="D17:D33"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D866C1BE-B7D5-4B1F-B6A5-63B62A314848}" name="Voltage (V)"/>
+    <tableColumn id="2" xr3:uid="{7E63130C-B1DA-46CA-9C67-4BAB56C281DD}" name="Assessment"/>
+    <tableColumn id="3" xr3:uid="{F177581A-906E-4F6F-B06F-C6A076D679BD}" name="Torque (Nm)">
+      <calculatedColumnFormula>0.5166*B37 - 0.3598</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E8D2274B-E189-4D6B-81C4-B99939D9D7BF}" name="Table136" displayName="Table136" ref="E36:G53" totalsRowShown="0">
+  <autoFilter ref="E36:G53" xr:uid="{E8D2274B-E189-4D6B-81C4-B99939D9D7BF}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E37:G52">
+    <sortCondition ref="G17:G33"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{1120CB93-0E6D-4240-856F-DFCA0E92F631}" name="Voltage (V)"/>
+    <tableColumn id="2" xr3:uid="{EFD40FF9-9465-460C-8DD6-CFEF646ECAC3}" name="Assessment"/>
+    <tableColumn id="3" xr3:uid="{CF6E2731-87AB-4050-9688-59B4FF7259F8}" name="Torque (Nm)">
+      <calculatedColumnFormula>0.5166*E37 - 0.3598</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2E892378-BFDD-4314-88AF-D51133E38576}" name="Table147" displayName="Table147" ref="H36:J48" totalsRowShown="0">
+  <autoFilter ref="H36:J48" xr:uid="{2E892378-BFDD-4314-88AF-D51133E38576}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H37:J52">
+    <sortCondition ref="J17:J33"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C6E43894-2352-4842-A26F-3EFC1D59AC3F}" name="Voltage (V)"/>
+    <tableColumn id="2" xr3:uid="{2060564F-4919-4D9F-9A4A-78506F110EBD}" name="Assessment"/>
+    <tableColumn id="3" xr3:uid="{DE9E3F7B-CFB2-48B9-A504-CD79B6FE9F28}" name="Torque (Nm)">
+      <calculatedColumnFormula>0.5166*H37 - 0.3598</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A39AB335-0B01-4F80-9D2F-1243C717AF1A}" name="Table158" displayName="Table158" ref="B37:D54" totalsRowShown="0">
+  <autoFilter ref="B37:D54" xr:uid="{A39AB335-0B01-4F80-9D2F-1243C717AF1A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B38:D53">
+    <sortCondition ref="D17:D33"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{BF966C92-7591-451A-96CD-41A5C71AC236}" name="Voltage (V)"/>
+    <tableColumn id="2" xr3:uid="{F99EC018-CAB0-45B5-89CB-4F8D61807ABF}" name="Assessment"/>
+    <tableColumn id="3" xr3:uid="{C1CCAFBB-DF0D-4A8A-B8F7-A189F479EAAB}" name="Torque (Nm)">
+      <calculatedColumnFormula>0.5166*B38 - 0.3598</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{43B36D27-505C-4964-9964-B4984BFDF5D3}" name="Table1369" displayName="Table1369" ref="E37:G56" totalsRowShown="0">
+  <autoFilter ref="E37:G56" xr:uid="{43B36D27-505C-4964-9964-B4984BFDF5D3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E38:G53">
+    <sortCondition ref="G17:G33"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{FDA69BAD-9F35-48F9-A8AA-3D67130B829D}" name="Voltage (V)"/>
+    <tableColumn id="2" xr3:uid="{5CEDEDDF-B33B-43C9-B801-0A3A3F3EDAF3}" name="Assessment"/>
+    <tableColumn id="3" xr3:uid="{E67C81B9-7CB6-4AE9-90D6-72E47FDE38A8}" name="Torque (Nm)">
+      <calculatedColumnFormula>0.5166*E38 - 0.3598</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1EEADAC3-921E-426F-A2A0-900D24973909}" name="Table14710" displayName="Table14710" ref="H37:J57" totalsRowShown="0">
+  <autoFilter ref="H37:J57" xr:uid="{1EEADAC3-921E-426F-A2A0-900D24973909}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H38:J53">
+    <sortCondition ref="J17:J33"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7B28D6F6-067E-41F3-9700-2C5499429527}" name="Voltage (V)"/>
+    <tableColumn id="2" xr3:uid="{DE867D31-4599-407E-9EDE-E63110028B87}" name="Assessment"/>
+    <tableColumn id="3" xr3:uid="{5FCD0948-AC2C-4073-9E65-B00793A82A19}" name="Torque (Nm)">
+      <calculatedColumnFormula>0.5166*H38 - 0.3598</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -36144,11 +36388,11 @@
       <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="S1" t="s">
         <v>21</v>
       </c>
@@ -36169,11 +36413,11 @@
       <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -36776,11 +37020,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -36804,11 +37048,11 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -37381,10 +37625,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04615C6C-4208-48D3-A317-3294B3E54DB4}">
-  <dimension ref="A1:AJ41"/>
+  <dimension ref="A1:AJ57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37394,11 +37638,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -37422,16 +37666,16 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="AH2" s="3" t="s">
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="AH2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -38209,68 +38453,710 @@
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="33" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="W33">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="34" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="W34">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="35" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="W35">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="36" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
       <c r="W36">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="37" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" t="s">
+        <v>67</v>
+      </c>
+      <c r="J37" t="s">
+        <v>36</v>
+      </c>
       <c r="W37">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="38" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>2.61</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <f>0.5166*B38 - 0.3598</f>
+        <v>0.98852599999999968</v>
+      </c>
+      <c r="E38">
+        <v>1.68</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f>0.5166*E38 - 0.3598</f>
+        <v>0.50808799999999987</v>
+      </c>
+      <c r="H38">
+        <v>1.58</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f>0.5166*H38 - 0.3598</f>
+        <v>0.45642799999999994</v>
+      </c>
       <c r="W38">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="39" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2.91</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D54" si="4">0.5166*B39 - 0.3598</f>
+        <v>1.1435059999999999</v>
+      </c>
+      <c r="E39">
+        <v>2.81</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ref="G39:G56" si="5">0.5166*E39 - 0.3598</f>
+        <v>1.0918459999999999</v>
+      </c>
+      <c r="H39">
+        <v>1.84</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ref="J39:J57" si="6">0.5166*H39 - 0.3598</f>
+        <v>0.59074399999999994</v>
+      </c>
       <c r="W39">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="40" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2.99</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>1.1848339999999999</v>
+      </c>
+      <c r="E40">
+        <v>2.79</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>1.0815139999999999</v>
+      </c>
+      <c r="H40">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="6"/>
+        <v>0.70956199999999969</v>
+      </c>
       <c r="W40">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="41" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2.83</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>1.1021779999999999</v>
+      </c>
+      <c r="E41">
+        <v>2.42</v>
+      </c>
+      <c r="F41">
+        <v>0.5</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>0.89037199999999983</v>
+      </c>
+      <c r="H41">
+        <v>2.38</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="6"/>
+        <v>0.86970799999999981</v>
+      </c>
       <c r="W41">
         <f>0.5166*U41 - 0.3598</f>
         <v>-0.35980000000000001</v>
       </c>
     </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>2.78</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="4"/>
+        <v>1.0763479999999999</v>
+      </c>
+      <c r="E42">
+        <v>2.21</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>0.78188599999999975</v>
+      </c>
+      <c r="H42">
+        <v>2.66</v>
+      </c>
+      <c r="I42">
+        <v>0.5</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="6"/>
+        <v>1.0143559999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>2.65</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="4"/>
+        <v>1.0091899999999998</v>
+      </c>
+      <c r="E43">
+        <v>2.04</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>0.6940639999999999</v>
+      </c>
+      <c r="H43">
+        <v>2.61</v>
+      </c>
+      <c r="I43">
+        <v>0.5</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="6"/>
+        <v>0.98852599999999968</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>2.56</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>0.96269599999999989</v>
+      </c>
+      <c r="E44">
+        <v>1.73</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="5"/>
+        <v>0.53391799999999989</v>
+      </c>
+      <c r="H44">
+        <v>2.48</v>
+      </c>
+      <c r="I44">
+        <v>0.5</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="6"/>
+        <v>0.92136799999999985</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2.48</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="4"/>
+        <v>0.92136799999999985</v>
+      </c>
+      <c r="E45">
+        <v>1.93</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>0.63723799999999986</v>
+      </c>
+      <c r="H45">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="I45">
+        <v>0.5</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="6"/>
+        <v>0.91620200000000007</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="4"/>
+        <v>0.89553800000000006</v>
+      </c>
+      <c r="E46">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F46">
+        <v>0.5</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="5"/>
+        <v>0.80771599999999977</v>
+      </c>
+      <c r="H46">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="I46">
+        <v>0.5</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="6"/>
+        <v>0.90587000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="C47">
+        <v>0.5</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="4"/>
+        <v>0.81804799999999978</v>
+      </c>
+      <c r="E47">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F47">
+        <v>0.5</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="5"/>
+        <v>0.83871199999999979</v>
+      </c>
+      <c r="H47">
+        <v>2.42</v>
+      </c>
+      <c r="I47">
+        <v>0.5</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="6"/>
+        <v>0.89037199999999983</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>2.38</v>
+      </c>
+      <c r="C48">
+        <v>0.5</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="4"/>
+        <v>0.86970799999999981</v>
+      </c>
+      <c r="E48">
+        <v>2.15</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="5"/>
+        <v>0.75088999999999972</v>
+      </c>
+      <c r="H48">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="6"/>
+        <v>0.77671999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C49">
+        <v>0.5</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="4"/>
+        <v>0.82837999999999978</v>
+      </c>
+      <c r="E49">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="5"/>
+        <v>0.78705199999999997</v>
+      </c>
+      <c r="H49">
+        <v>2.27</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="6"/>
+        <v>0.81288199999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C50">
+        <v>0.5</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="4"/>
+        <v>0.78705199999999997</v>
+      </c>
+      <c r="E50">
+        <v>2.36</v>
+      </c>
+      <c r="F50">
+        <v>0.5</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="5"/>
+        <v>0.85937599999999981</v>
+      </c>
+      <c r="H50">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="I50">
+        <v>0.5</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="6"/>
+        <v>0.89553800000000006</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>2.08</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="4"/>
+        <v>0.71472799999999992</v>
+      </c>
+      <c r="E51">
+        <v>2.62</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="5"/>
+        <v>0.99369199999999991</v>
+      </c>
+      <c r="H51">
+        <v>2.66</v>
+      </c>
+      <c r="I51">
+        <v>0.5</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="6"/>
+        <v>1.0143559999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="4"/>
+        <v>0.67339999999999989</v>
+      </c>
+      <c r="E52">
+        <v>2.63</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="5"/>
+        <v>0.99885799999999969</v>
+      </c>
+      <c r="H52">
+        <v>2.93</v>
+      </c>
+      <c r="I52">
+        <v>0.5</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="6"/>
+        <v>1.1538379999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>2.12</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="4"/>
+        <v>0.73539199999999993</v>
+      </c>
+      <c r="E53">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="5"/>
+        <v>0.94719799999999965</v>
+      </c>
+      <c r="H53">
+        <v>3.18</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="6"/>
+        <v>1.282988</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>2.16</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="4"/>
+        <v>0.75605599999999995</v>
+      </c>
+      <c r="E54">
+        <v>2.25</v>
+      </c>
+      <c r="F54">
+        <v>0.5</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="5"/>
+        <v>0.80254999999999999</v>
+      </c>
+      <c r="H54">
+        <v>3.04</v>
+      </c>
+      <c r="I54">
+        <v>0.5</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="6"/>
+        <v>1.210664</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F55">
+        <v>0.5</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="5"/>
+        <v>0.78705199999999997</v>
+      </c>
+      <c r="H55">
+        <v>3.1</v>
+      </c>
+      <c r="I55">
+        <v>0.5</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="6"/>
+        <v>1.24166</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>2.6</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="5"/>
+        <v>0.9833599999999999</v>
+      </c>
+      <c r="H56">
+        <v>3.34</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="6"/>
+        <v>1.3656439999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>3.14</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="6"/>
+        <v>1.262324</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="AH2:AJ2"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -38292,17 +39178,17 @@
       <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="4"/>
       <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -38326,10 +39212,10 @@
       <c r="S2" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="3"/>
+      <c r="AF2" s="4"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -38947,10 +39833,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF32143-BDE9-48E5-8FDD-8FBFEF700EFA}">
-  <dimension ref="A1:AI41"/>
+  <dimension ref="A1:AI52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38960,11 +39846,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -38988,16 +39874,16 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="AG2" s="3" t="s">
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="AG2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -39055,9 +39941,15 @@
       <c r="F4" t="s">
         <v>4</v>
       </c>
+      <c r="U4" s="3">
+        <v>1.91</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0.5</v>
+      </c>
       <c r="W4">
         <f>0.5166*U4 - 0.3598</f>
-        <v>-0.35980000000000001</v>
+        <v>0.62690599999999985</v>
       </c>
       <c r="Y4" t="s">
         <v>26</v>
@@ -39090,9 +39982,15 @@
       <c r="F5" t="s">
         <v>5</v>
       </c>
+      <c r="U5" s="3">
+        <v>1.78</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
       <c r="W5">
         <f t="shared" ref="W5:W40" si="1">0.5166*U5 - 0.3598</f>
-        <v>-0.35980000000000001</v>
+        <v>0.55974799999999991</v>
       </c>
       <c r="AG5">
         <v>2.81</v>
@@ -39116,9 +40014,15 @@
         <f t="shared" si="0"/>
         <v>0.73539199999999993</v>
       </c>
+      <c r="U6" s="3">
+        <v>1.83</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
       <c r="W6">
         <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
+        <v>0.58557799999999993</v>
       </c>
       <c r="AG6">
         <v>2.0499999999999998</v>
@@ -39142,9 +40046,15 @@
         <f t="shared" si="0"/>
         <v>0.90587000000000006</v>
       </c>
+      <c r="U7" s="3">
+        <v>1.87</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0.5</v>
+      </c>
       <c r="W7">
         <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
+        <v>0.60624199999999995</v>
       </c>
       <c r="AG7">
         <v>2.09</v>
@@ -39168,9 +40078,15 @@
         <f t="shared" si="0"/>
         <v>0.78705199999999997</v>
       </c>
+      <c r="U8" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0.5</v>
+      </c>
       <c r="W8">
         <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
+        <v>0.64756999999999987</v>
       </c>
       <c r="AG8">
         <v>2.15</v>
@@ -39194,9 +40110,15 @@
         <f t="shared" si="0"/>
         <v>0.84387800000000002</v>
       </c>
+      <c r="U9" s="3">
+        <v>2.13</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0.5</v>
+      </c>
       <c r="W9">
         <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
+        <v>0.74055799999999972</v>
       </c>
       <c r="AG9">
         <v>2.12</v>
@@ -39220,9 +40142,15 @@
         <f t="shared" si="0"/>
         <v>0.71472799999999992</v>
       </c>
+      <c r="U10" s="3">
+        <v>2.27</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1</v>
+      </c>
       <c r="W10">
         <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
+        <v>0.81288199999999999</v>
       </c>
       <c r="AG10">
         <v>2.2999999999999998</v>
@@ -39246,9 +40174,15 @@
         <f t="shared" si="0"/>
         <v>0.72505999999999993</v>
       </c>
+      <c r="U11" s="3">
+        <v>2.23</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1</v>
+      </c>
       <c r="W11">
         <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
+        <v>0.79221799999999976</v>
       </c>
       <c r="AG11">
         <v>2.46</v>
@@ -39272,9 +40206,15 @@
         <f t="shared" si="0"/>
         <v>0.77671999999999997</v>
       </c>
+      <c r="U12" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1</v>
+      </c>
       <c r="W12">
         <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
+        <v>0.77671999999999997</v>
       </c>
       <c r="AG12">
         <v>2.4300000000000002</v>
@@ -39298,9 +40238,15 @@
         <f t="shared" si="0"/>
         <v>0.46675999999999995</v>
       </c>
+      <c r="U13" s="3">
+        <v>2.17</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0.5</v>
+      </c>
       <c r="W13">
         <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
+        <v>0.76122199999999973</v>
       </c>
       <c r="AG13">
         <v>2.41</v>
@@ -39324,9 +40270,15 @@
         <f t="shared" si="0"/>
         <v>0.63207199999999986</v>
       </c>
+      <c r="U14" s="3">
+        <v>2.23</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1</v>
+      </c>
       <c r="W14">
         <f t="shared" si="1"/>
-        <v>-0.35980000000000001</v>
+        <v>0.79221799999999976</v>
       </c>
       <c r="AG14">
         <v>2.46</v>
@@ -39440,9 +40392,15 @@
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
+      <c r="AG19" s="3">
+        <v>1.95</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>0.5</v>
+      </c>
       <c r="AI19">
         <f t="shared" si="2"/>
-        <v>-0.35980000000000001</v>
+        <v>0.64756999999999987</v>
       </c>
     </row>
     <row r="20" spans="4:35" x14ac:dyDescent="0.25">
@@ -39454,9 +40412,15 @@
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
+      <c r="AG20" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="AH20" s="3">
+        <v>0</v>
+      </c>
       <c r="AI20">
         <f t="shared" si="2"/>
-        <v>-0.35980000000000001</v>
+        <v>0.63207199999999986</v>
       </c>
     </row>
     <row r="21" spans="4:35" x14ac:dyDescent="0.25">
@@ -39607,68 +40571,543 @@
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="33" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="W33">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="34" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
       <c r="W34">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="35" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" t="s">
+        <v>67</v>
+      </c>
+      <c r="J35" t="s">
+        <v>36</v>
+      </c>
       <c r="W35">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="36" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>1.52</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f>0.5166*B36 - 0.3598</f>
+        <v>0.42543199999999992</v>
+      </c>
+      <c r="E36">
+        <v>1.91</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <f>0.5166*E36 - 0.3598</f>
+        <v>0.62690599999999985</v>
+      </c>
+      <c r="H36">
+        <v>3.42</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>1.4069719999999997</v>
+      </c>
       <c r="W36">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="37" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>1.68</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:D49" si="3">0.5166*B37 - 0.3598</f>
+        <v>0.50808799999999987</v>
+      </c>
+      <c r="E37">
+        <v>1.78</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ref="G37:G46" si="4">0.5166*E37 - 0.3598</f>
+        <v>0.55974799999999991</v>
+      </c>
+      <c r="H37">
+        <v>2.81</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1.0918459999999999</v>
+      </c>
       <c r="W37">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="38" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1.91</v>
+      </c>
+      <c r="C38">
+        <v>0.5</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>0.62690599999999985</v>
+      </c>
+      <c r="E38">
+        <v>1.83</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>0.58557799999999993</v>
+      </c>
+      <c r="H38">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I38">
+        <v>0.5</v>
+      </c>
+      <c r="J38">
+        <v>0.69922999999999969</v>
+      </c>
       <c r="W38">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="39" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2.12</v>
+      </c>
+      <c r="C39">
+        <v>0.5</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>0.73539199999999993</v>
+      </c>
+      <c r="E39">
+        <v>1.87</v>
+      </c>
+      <c r="F39">
+        <v>0.5</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>0.60624199999999995</v>
+      </c>
+      <c r="H39">
+        <v>2.09</v>
+      </c>
+      <c r="I39">
+        <v>0.5</v>
+      </c>
+      <c r="J39">
+        <v>0.7198939999999997</v>
+      </c>
       <c r="W39">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="40" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>0.90587000000000006</v>
+      </c>
+      <c r="E40">
+        <v>1.95</v>
+      </c>
+      <c r="F40">
+        <v>0.5</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>0.64756999999999987</v>
+      </c>
+      <c r="H40">
+        <v>2.15</v>
+      </c>
+      <c r="I40">
+        <v>0.5</v>
+      </c>
+      <c r="J40">
+        <v>0.75088999999999972</v>
+      </c>
       <c r="W40">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="41" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>0.78705199999999997</v>
+      </c>
+      <c r="E41">
+        <v>2.13</v>
+      </c>
+      <c r="F41">
+        <v>0.5</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>0.74055799999999972</v>
+      </c>
+      <c r="H41">
+        <v>2.12</v>
+      </c>
+      <c r="I41">
+        <v>0.5</v>
+      </c>
+      <c r="J41">
+        <v>0.73539199999999993</v>
+      </c>
       <c r="W41">
         <f>0.5166*U41 - 0.3598</f>
         <v>-0.35980000000000001</v>
       </c>
     </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>2.33</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="3"/>
+        <v>0.84387800000000002</v>
+      </c>
+      <c r="E42">
+        <v>2.27</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>0.81288199999999999</v>
+      </c>
+      <c r="H42">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I42">
+        <v>0.5</v>
+      </c>
+      <c r="J42">
+        <v>0.82837999999999978</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>2.08</v>
+      </c>
+      <c r="C43">
+        <v>0.5</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="3"/>
+        <v>0.71472799999999992</v>
+      </c>
+      <c r="E43">
+        <v>2.23</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>0.79221799999999976</v>
+      </c>
+      <c r="H43">
+        <v>2.46</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0.91103599999999985</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>2.1</v>
+      </c>
+      <c r="C44">
+        <v>0.5</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="3"/>
+        <v>0.72505999999999993</v>
+      </c>
+      <c r="E44">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>0.77671999999999997</v>
+      </c>
+      <c r="H44">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="I44">
+        <v>0.5</v>
+      </c>
+      <c r="J44">
+        <v>0.89553800000000006</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="3"/>
+        <v>0.77671999999999997</v>
+      </c>
+      <c r="E45">
+        <v>2.17</v>
+      </c>
+      <c r="F45">
+        <v>0.5</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>0.76122199999999973</v>
+      </c>
+      <c r="H45">
+        <v>2.41</v>
+      </c>
+      <c r="I45">
+        <v>0.5</v>
+      </c>
+      <c r="J45">
+        <v>0.88520600000000005</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1.6</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="3"/>
+        <v>0.46675999999999995</v>
+      </c>
+      <c r="E46">
+        <v>2.23</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>0.79221799999999976</v>
+      </c>
+      <c r="H46">
+        <v>2.46</v>
+      </c>
+      <c r="I46">
+        <v>0.5</v>
+      </c>
+      <c r="J46">
+        <v>0.91103599999999985</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>1.92</v>
+      </c>
+      <c r="C47">
+        <v>0.5</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="3"/>
+        <v>0.63207199999999986</v>
+      </c>
+      <c r="H47">
+        <v>2.48</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0.92136799999999985</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>1.84</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="3"/>
+        <v>0.59074399999999994</v>
+      </c>
+      <c r="H48">
+        <v>2.7</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1.0350199999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>1.91</v>
+      </c>
+      <c r="C49">
+        <v>0.5</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="3"/>
+        <v>0.62690599999999985</v>
+      </c>
+      <c r="H49">
+        <v>2.79</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1.0815139999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>2.65</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1.0091899999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>1.95</v>
+      </c>
+      <c r="I51">
+        <v>0.5</v>
+      </c>
+      <c r="J51">
+        <v>0.64756999999999987</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>1.92</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.63207199999999986</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -39690,17 +41129,17 @@
       <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="4"/>
       <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -39724,10 +41163,10 @@
       <c r="S2" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AE2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="3"/>
+      <c r="AF2" s="4"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -40155,17 +41594,17 @@
       <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="4"/>
       <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -40399,11 +41838,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -40427,11 +41866,11 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -40918,11 +42357,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -40946,11 +42385,11 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -41520,11 +42959,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -41548,11 +42987,11 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D3">
@@ -42167,11 +43606,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -42192,11 +43631,11 @@
       <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D3">
@@ -42724,17 +44163,17 @@
       <c r="A1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="4"/>
       <c r="O1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -43110,10 +44549,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F95095C-EE6C-4660-BAF9-81EF55D8904A}">
-  <dimension ref="A1:AC32"/>
+  <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="B16" sqref="B16:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43161,16 +44600,16 @@
       <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="AA3" s="3" t="s">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="AA3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -43519,15 +44958,21 @@
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
+      <c r="B16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
       <c r="O16">
         <v>2.2799999999999998</v>
       </c>
@@ -43550,15 +44995,32 @@
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>0.89</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:D32" si="2">0.5166*B17 - 0.3598</f>
-        <v>9.9973999999999952E-2</v>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
       </c>
       <c r="Q17">
         <f t="shared" si="0"/>
@@ -43571,14 +45033,34 @@
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>1.08</v>
+        <v>0.89</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
-        <v>0.19812799999999997</v>
+        <f t="shared" ref="D18:D33" si="2">0.5166*B18 - 0.3598</f>
+        <v>9.9973999999999952E-2</v>
+      </c>
+      <c r="E18">
+        <v>1.58</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>0.5166*E18 - 0.3598</f>
+        <v>0.45642799999999994</v>
+      </c>
+      <c r="H18">
+        <v>2.58</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f>0.5166*H18 - 0.3598</f>
+        <v>0.97302799999999989</v>
       </c>
       <c r="Q18">
         <f t="shared" si="0"/>
@@ -43591,14 +45073,34 @@
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>1.1200000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>0.21879199999999999</v>
+        <v>0.19812799999999997</v>
+      </c>
+      <c r="E19">
+        <v>1.95</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G29" si="3">0.5166*E19 - 0.3598</f>
+        <v>0.64756999999999987</v>
+      </c>
+      <c r="H19">
+        <v>2.78</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J29" si="4">0.5166*H19 - 0.3598</f>
+        <v>1.0763479999999999</v>
       </c>
       <c r="Q19">
         <f t="shared" si="0"/>
@@ -43611,14 +45113,34 @@
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>1.57</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>0.45126199999999994</v>
+        <v>0.21879199999999999</v>
+      </c>
+      <c r="E20">
+        <v>2.04</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>0.6940639999999999</v>
+      </c>
+      <c r="H20">
+        <v>2.42</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>0.89037199999999983</v>
       </c>
       <c r="Q20">
         <f t="shared" si="0"/>
@@ -43631,14 +45153,34 @@
     </row>
     <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>0.50808799999999987</v>
+        <v>0.45126199999999994</v>
+      </c>
+      <c r="E21">
+        <v>2.65</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>1.0091899999999998</v>
+      </c>
+      <c r="H21">
+        <v>1.99</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>0.66823399999999988</v>
       </c>
       <c r="Q21">
         <f t="shared" si="0"/>
@@ -43651,14 +45193,34 @@
     </row>
     <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>0.5390839999999999</v>
+        <v>0.50808799999999987</v>
+      </c>
+      <c r="E22">
+        <v>2.41</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>0.88520600000000005</v>
+      </c>
+      <c r="H22">
+        <v>1.77</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>0.55458199999999991</v>
       </c>
       <c r="Q22">
         <f t="shared" si="0"/>
@@ -43671,14 +45233,34 @@
     </row>
     <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>0.57524599999999992</v>
+        <v>0.5390839999999999</v>
+      </c>
+      <c r="E23">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>0.79738399999999998</v>
+      </c>
+      <c r="H23">
+        <v>2.06</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>0.70439599999999991</v>
       </c>
       <c r="Q23">
         <f t="shared" si="0"/>
@@ -43691,14 +45273,34 @@
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>0.60624199999999995</v>
+        <v>0.57524599999999992</v>
+      </c>
+      <c r="E24">
+        <v>2.16</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>0.75605599999999995</v>
+      </c>
+      <c r="H24">
+        <v>2.15</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>0.75088999999999972</v>
       </c>
       <c r="Q24">
         <f t="shared" si="0"/>
@@ -43711,14 +45313,34 @@
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="C25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>0.61657399999999984</v>
+        <v>0.60624199999999995</v>
+      </c>
+      <c r="E25">
+        <v>2.08</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>0.71472799999999992</v>
+      </c>
+      <c r="H25">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>0.77671999999999997</v>
       </c>
       <c r="Q25">
         <f t="shared" si="0"/>
@@ -43731,14 +45353,34 @@
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="C26">
         <v>0.5</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>0.66306799999999988</v>
+        <v>0.61657399999999984</v>
+      </c>
+      <c r="E26">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="3"/>
+        <v>0.68889799999999968</v>
+      </c>
+      <c r="H26">
+        <v>2.44</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>0.90070399999999984</v>
       </c>
       <c r="Q26">
         <f t="shared" si="0"/>
@@ -43751,14 +45393,34 @@
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>2.0499999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="C27">
         <v>0.5</v>
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>0.69922999999999969</v>
+        <v>0.66306799999999988</v>
+      </c>
+      <c r="E27">
+        <v>2.09</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>0.7198939999999997</v>
+      </c>
+      <c r="H27">
+        <v>2.31</v>
+      </c>
+      <c r="I27">
+        <v>0.5</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>0.83354600000000001</v>
       </c>
       <c r="Q27">
         <f t="shared" si="0"/>
@@ -43771,14 +45433,34 @@
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>2.11</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>0.73022599999999971</v>
+        <v>0.69922999999999969</v>
+      </c>
+      <c r="E28">
+        <v>2.14</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>0.74572399999999994</v>
+      </c>
+      <c r="H28">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="I28">
+        <v>0.5</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>0.83871199999999979</v>
       </c>
       <c r="Q28">
         <f t="shared" si="0"/>
@@ -43791,14 +45473,34 @@
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B29">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>0.74055799999999972</v>
+        <v>0.73022599999999971</v>
+      </c>
+      <c r="E29">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>0.81804799999999978</v>
+      </c>
+      <c r="H29">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>0.92653400000000008</v>
       </c>
       <c r="Q29">
         <f t="shared" si="0"/>
@@ -43811,49 +45513,66 @@
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>2.25</v>
+        <v>2.13</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>0.80254999999999999</v>
+        <v>0.74055799999999972</v>
       </c>
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B31">
-        <v>2.2599999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>0.80771599999999977</v>
+        <v>0.80254999999999999</v>
       </c>
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B32">
-        <v>2.2999999999999998</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
+        <v>0.80771599999999977</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
         <v>0.82837999999999978</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -43862,7 +45581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA64C6AC-8460-4877-AD67-40FDDC949CE1}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
@@ -43874,18 +45593,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="V1" s="3" t="s">
+      <c r="Q1" s="4"/>
+      <c r="V1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="3"/>
+      <c r="W1" s="4"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -44222,10 +45941,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70719D8A-72F2-487D-A44E-ED7628478637}">
-  <dimension ref="A1:AK41"/>
+  <dimension ref="A1:AK53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AK35" sqref="AK35"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44235,11 +45954,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -44260,16 +45979,16 @@
       <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="AI2" s="3" t="s">
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="AI2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -44935,68 +46654,562 @@
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="33" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="W33">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="34" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="W34">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="35" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
       <c r="W35">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="36" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" t="s">
+        <v>36</v>
+      </c>
       <c r="W36">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="37" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>2.25</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <f>0.5166*B37 - 0.3598</f>
+        <v>0.80254999999999999</v>
+      </c>
+      <c r="E37">
+        <v>2.65</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f>0.5166*E37 - 0.3598</f>
+        <v>1.0091899999999998</v>
+      </c>
+      <c r="H37">
+        <v>2.35</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <f>0.5166*H37 - 0.3598</f>
+        <v>0.85421000000000002</v>
+      </c>
       <c r="W37">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="38" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1.73</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:D49" si="3">0.5166*B38 - 0.3598</f>
+        <v>0.53391799999999989</v>
+      </c>
+      <c r="E38">
+        <v>2.56</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ref="G38:G53" si="4">0.5166*E38 - 0.3598</f>
+        <v>0.96269599999999989</v>
+      </c>
+      <c r="H38">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <f t="shared" ref="J38:J48" si="5">0.5166*H38 - 0.3598</f>
+        <v>0.82837999999999978</v>
+      </c>
       <c r="W38">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="39" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1.45</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>0.38926999999999989</v>
+      </c>
+      <c r="E39">
+        <v>2.06</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>0.70439599999999991</v>
+      </c>
+      <c r="H39">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="5"/>
+        <v>0.68889799999999968</v>
+      </c>
       <c r="W39">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="40" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>1.49</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>0.40993399999999991</v>
+      </c>
+      <c r="E40">
+        <v>1.61</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>0.47192599999999996</v>
+      </c>
+      <c r="H40">
+        <v>1.75</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="5"/>
+        <v>0.5442499999999999</v>
+      </c>
       <c r="W40">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
-    <row r="41" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0.66</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>-1.8844000000000027E-2</v>
+      </c>
+      <c r="E41">
+        <v>1.45</v>
+      </c>
+      <c r="F41">
+        <v>0.5</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>0.38926999999999989</v>
+      </c>
+      <c r="H41">
+        <v>1.64</v>
+      </c>
+      <c r="I41">
+        <v>0.5</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="5"/>
+        <v>0.48742399999999986</v>
+      </c>
       <c r="W41">
         <f t="shared" si="1"/>
         <v>-0.35980000000000001</v>
       </c>
     </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0.81</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="3"/>
+        <v>5.8645999999999976E-2</v>
+      </c>
+      <c r="E42">
+        <v>1.22</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>0.27045199999999991</v>
+      </c>
+      <c r="H42">
+        <v>1.69</v>
+      </c>
+      <c r="I42">
+        <v>0.5</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="5"/>
+        <v>0.51325399999999988</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0.99</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="3"/>
+        <v>0.15163399999999994</v>
+      </c>
+      <c r="E43">
+        <v>1.06</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>0.18779599999999996</v>
+      </c>
+      <c r="H43">
+        <v>1.73</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="5"/>
+        <v>0.53391799999999989</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>1.07</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="3"/>
+        <v>0.19296199999999997</v>
+      </c>
+      <c r="E44">
+        <v>1.39</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>0.35827399999999987</v>
+      </c>
+      <c r="H44">
+        <v>1.5</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="5"/>
+        <v>0.41509999999999991</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>1.25</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="3"/>
+        <v>0.28594999999999993</v>
+      </c>
+      <c r="E45">
+        <v>1.42</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>0.37377199999999988</v>
+      </c>
+      <c r="H45">
+        <v>1.41</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>0.36860599999999988</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1.3</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="3"/>
+        <v>0.31177999999999995</v>
+      </c>
+      <c r="E46">
+        <v>1.45</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>0.38926999999999989</v>
+      </c>
+      <c r="H46">
+        <v>1.56</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="5"/>
+        <v>0.44609599999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>1.34</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="3"/>
+        <v>0.33244399999999996</v>
+      </c>
+      <c r="E47">
+        <v>1.41</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="4"/>
+        <v>0.36860599999999988</v>
+      </c>
+      <c r="H47">
+        <v>1.58</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="5"/>
+        <v>0.45642799999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>1.42</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="3"/>
+        <v>0.37377199999999988</v>
+      </c>
+      <c r="E48">
+        <v>1.52</v>
+      </c>
+      <c r="F48">
+        <v>0.5</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="4"/>
+        <v>0.42543199999999992</v>
+      </c>
+      <c r="H48">
+        <v>1.61</v>
+      </c>
+      <c r="I48">
+        <v>0.5</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="5"/>
+        <v>0.47192599999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>1.49</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="3"/>
+        <v>0.40993399999999991</v>
+      </c>
+      <c r="E49">
+        <v>1.63</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="4"/>
+        <v>0.48225799999999985</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>1.72</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="4"/>
+        <v>0.52875199999999989</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>1.67</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="4"/>
+        <v>0.50292199999999987</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>1.49</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="4"/>
+        <v>0.40993399999999991</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>1.56</v>
+      </c>
+      <c r="F53">
+        <v>0.5</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>0.44609599999999994</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -45004,7 +47217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CC8BDB-0236-41C6-9547-DB53C35B0BAF}">
   <dimension ref="B1:AC25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -45015,14 +47228,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3"/>
+      <c r="Q1" s="4"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -45043,10 +47256,10 @@
       <c r="Q2" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="3"/>
+      <c r="Y2" s="4"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B3">

--- a/Experiment/Experiment.xlsx
+++ b/Experiment/Experiment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Documents\2023-FYP\Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478E7C0D-93C4-4B84-BA85-5B102E784EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAE70BA6-8787-4BCB-9D2B-B308BFA078F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="837" firstSheet="2" activeTab="8" xr2:uid="{9618EC4A-BAF2-4511-9F63-3241D4476D9E}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="837" firstSheet="5" activeTab="14" xr2:uid="{9618EC4A-BAF2-4511-9F63-3241D4476D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="movement1 40rpm" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,6 @@
     <sheet name="movement8 6rpm 15x20 (2)" sheetId="14" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41580,7 +41579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2FC552-5866-4A71-8190-BCDF3D8C8D36}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -47217,7 +47216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CC8BDB-0236-41C6-9547-DB53C35B0BAF}">
   <dimension ref="B1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
